--- a/exp_c/slide/data.xlsx
+++ b/exp_c/slide/data.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamurachizu/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="25600" windowHeight="15040"/>
+    <workbookView xWindow="1155" yWindow="465" windowWidth="25605" windowHeight="15045"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,8 +24,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,24 +84,12 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -120,39 +103,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>255.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -167,39 +149,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>255.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -214,39 +195,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>255.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -261,39 +241,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>255.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -308,39 +287,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>255.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -355,39 +333,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>255.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -402,39 +379,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>255.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -449,39 +425,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>255.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -496,39 +471,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>255.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -543,93 +517,77 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>255.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="914124272"/>
-        <c:axId val="914128080"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="105701760"/>
+        <c:axId val="105703296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="914124272"/>
+        <c:axId val="105701760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="914128080"/>
+        <c:crossAx val="105703296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="914128080"/>
+        <c:axId val="105703296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="914124272"/>
+        <c:crossAx val="105701760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -637,24 +595,12 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -668,39 +614,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -715,39 +660,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -762,39 +706,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -809,39 +752,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -856,39 +798,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -903,39 +844,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -950,39 +890,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -997,39 +936,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -1044,39 +982,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -1091,93 +1028,77 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="914231632"/>
-        <c:axId val="914235440"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="107569152"/>
+        <c:axId val="107570688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="914231632"/>
+        <c:axId val="107569152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="914235440"/>
+        <c:crossAx val="107570688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="914235440"/>
+        <c:axId val="107570688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="914231632"/>
+        <c:crossAx val="107569152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1185,24 +1106,12 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1216,39 +1125,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1263,39 +1171,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1310,39 +1217,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1357,39 +1263,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1404,39 +1309,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1451,39 +1355,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -1498,39 +1401,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -1545,39 +1447,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -1592,39 +1493,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -1639,82 +1539,578 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="914321888"/>
-        <c:axId val="914325696"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="107660032"/>
+        <c:axId val="107661568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="914321888"/>
+        <c:axId val="107660032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="914325696"/>
+        <c:crossAx val="107661568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="914325696"/>
+        <c:axId val="107661568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="914321888"/>
+        <c:crossAx val="107660032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ja-JP"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$32:$U$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$33:$U$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$34:$U$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$35:$U$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$36:$U$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$37:$U$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$38:$U$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$39:$U$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$40:$U$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$41:$U$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="108860160"/>
+        <c:axId val="108861696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="108860160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="108861696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="108861696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="108860160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1722,7 +2118,6 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1736,574 +2131,10 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$32:$U$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$33:$U$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$34:$U$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$35:$U$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$36:$U$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$37:$U$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$38:$U$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$39:$U$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$40:$U$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$41:$U$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="928059408"/>
-        <c:axId val="928063248"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="928059408"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="928063248"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="928063248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="928059408"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2311,38 +2142,16 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="30"/>
       <c:rotY val="0"/>
-      <c:rAngAx val="0"/>
       <c:perspective val="20"/>
     </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:surface3DChart>
-        <c:wireframe val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2353,34 +2162,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2396,34 +2205,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2439,34 +2248,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2482,34 +2291,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2525,34 +2334,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2568,34 +2377,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2611,34 +2420,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2654,34 +2463,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2697,34 +2506,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2740,95 +2549,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:bandFmts/>
-        <c:axId val="928151344"/>
-        <c:axId val="928155184"/>
-        <c:axId val="928158928"/>
+        <c:axId val="108934272"/>
+        <c:axId val="108935808"/>
+        <c:axId val="108930368"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="928151344"/>
+        <c:axId val="108934272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="928155184"/>
+        <c:crossAx val="108935808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="928155184"/>
+        <c:axId val="108935808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="928151344"/>
+        <c:crossAx val="108934272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="928158928"/>
+        <c:axId val="108930368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="928155184"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="108935808"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2842,14 +2641,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2857,38 +2655,15 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="50"/>
       <c:rotY val="0"/>
-      <c:rAngAx val="0"/>
-      <c:perspective val="40"/>
     </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:surface3DChart>
-        <c:wireframe val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2899,34 +2674,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2942,34 +2717,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2985,34 +2760,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3028,34 +2803,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3071,34 +2846,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3114,34 +2889,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3157,34 +2932,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3200,34 +2975,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3243,34 +3018,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3286,95 +3061,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:bandFmts/>
-        <c:axId val="928241808"/>
-        <c:axId val="928245648"/>
-        <c:axId val="928249392"/>
+        <c:axId val="108993152"/>
+        <c:axId val="109003136"/>
+        <c:axId val="108973120"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="928241808"/>
+        <c:axId val="108993152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="928245648"/>
+        <c:crossAx val="109003136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="928245648"/>
+        <c:axId val="109003136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="928241808"/>
+        <c:crossAx val="108993152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="928249392"/>
+        <c:axId val="108973120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="928245648"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="109003136"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3388,11 +3153,10 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3400,24 +3164,12 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3431,39 +3183,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3478,39 +3229,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3525,39 +3275,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3572,39 +3321,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3619,39 +3367,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -3666,39 +3413,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -3713,39 +3459,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -3760,39 +3505,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -3807,39 +3551,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -3854,96 +3597,80 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1037319952"/>
-        <c:axId val="946032096"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="109071360"/>
+        <c:axId val="109089536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1037319952"/>
+        <c:axId val="109071360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="946032096"/>
+        <c:crossAx val="109089536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="946032096"/>
+        <c:axId val="109089536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1037319952"/>
+        <c:crossAx val="109071360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3951,24 +3678,12 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3982,39 +3697,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4029,39 +3743,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4076,39 +3789,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4123,39 +3835,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -4170,39 +3881,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -4217,39 +3927,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -4264,39 +3973,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -4311,39 +4019,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -4358,39 +4065,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -4405,89 +4111,582 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1037597728"/>
-        <c:axId val="967249088"/>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="109169280"/>
+        <c:axId val="109179264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1037597728"/>
+        <c:axId val="109169280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="967249088"/>
+        <c:crossAx val="109179264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="967249088"/>
+        <c:axId val="109179264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1037597728"/>
+        <c:crossAx val="109169280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ja-JP"/>
+  <c:chart>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:surface3DChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$108:$J$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$109:$J$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$110:$J$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$111:$J$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$112:$J$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$113:$J$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$114:$J$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$115:$J$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$116:$J$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$117:$J$117</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:bandFmts/>
+        <c:axId val="109191168"/>
+        <c:axId val="109313024"/>
+        <c:axId val="124732288"/>
+      </c:surface3DChart>
+      <c:catAx>
+        <c:axId val="109191168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="109313024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="109313024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="109191168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="124732288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="109313024"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4743,6 +4942,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="グラフ 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4789,7 +5018,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -4824,7 +5053,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -5032,16 +5261,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:U117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="I92" sqref="I92"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="L123" sqref="L123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5103,7 +5332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>0</v>
       </c>
@@ -5165,7 +5394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>0</v>
       </c>
@@ -5227,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>0</v>
       </c>
@@ -5289,7 +5518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>0</v>
       </c>
@@ -5351,7 +5580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="A7">
         <v>0</v>
       </c>
@@ -5413,7 +5642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="A8">
         <v>0</v>
       </c>
@@ -5475,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="A9">
         <v>0</v>
       </c>
@@ -5537,7 +5766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>0</v>
       </c>
@@ -5599,7 +5828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11">
         <v>0</v>
       </c>
@@ -5661,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21">
       <c r="A32">
         <v>0</v>
       </c>
@@ -5723,7 +5952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21">
       <c r="A33">
         <v>0</v>
       </c>
@@ -5785,7 +6014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21">
       <c r="A34">
         <v>0</v>
       </c>
@@ -5847,7 +6076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21">
       <c r="A35">
         <v>0</v>
       </c>
@@ -5909,7 +6138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21">
       <c r="A36">
         <v>0</v>
       </c>
@@ -5971,7 +6200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21">
       <c r="A37">
         <v>0</v>
       </c>
@@ -6033,7 +6262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21">
       <c r="A38">
         <v>0</v>
       </c>
@@ -6095,7 +6324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21">
       <c r="A39">
         <v>0</v>
       </c>
@@ -6157,7 +6386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21">
       <c r="A40">
         <v>0</v>
       </c>
@@ -6219,7 +6448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21">
       <c r="A41">
         <v>0</v>
       </c>
@@ -6281,7 +6510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21">
       <c r="A61">
         <v>0</v>
       </c>
@@ -6343,7 +6572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21">
       <c r="A62">
         <v>0</v>
       </c>
@@ -6405,7 +6634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21">
       <c r="A63">
         <v>0</v>
       </c>
@@ -6467,7 +6696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21">
       <c r="A64">
         <v>0</v>
       </c>
@@ -6529,7 +6758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21">
       <c r="A65">
         <v>0</v>
       </c>
@@ -6591,7 +6820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21">
       <c r="A66">
         <v>0</v>
       </c>
@@ -6653,7 +6882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21">
       <c r="A67">
         <v>0</v>
       </c>
@@ -6715,7 +6944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21">
       <c r="A68">
         <v>0</v>
       </c>
@@ -6777,7 +7006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21">
       <c r="A69">
         <v>0</v>
       </c>
@@ -6839,7 +7068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21">
       <c r="A70">
         <v>0</v>
       </c>
@@ -6899,6 +7128,326 @@
       </c>
       <c r="U70">
         <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108">
+        <v>100</v>
+      </c>
+      <c r="B108">
+        <v>100</v>
+      </c>
+      <c r="C108">
+        <v>100</v>
+      </c>
+      <c r="D108">
+        <v>100</v>
+      </c>
+      <c r="E108">
+        <v>100</v>
+      </c>
+      <c r="F108">
+        <v>100</v>
+      </c>
+      <c r="G108">
+        <v>100</v>
+      </c>
+      <c r="H108">
+        <v>100</v>
+      </c>
+      <c r="I108">
+        <v>100</v>
+      </c>
+      <c r="J108">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109">
+        <v>100</v>
+      </c>
+      <c r="B109">
+        <v>100</v>
+      </c>
+      <c r="C109">
+        <v>100</v>
+      </c>
+      <c r="D109">
+        <v>100</v>
+      </c>
+      <c r="E109">
+        <v>100</v>
+      </c>
+      <c r="F109">
+        <v>100</v>
+      </c>
+      <c r="G109">
+        <v>100</v>
+      </c>
+      <c r="H109">
+        <v>100</v>
+      </c>
+      <c r="I109">
+        <v>100</v>
+      </c>
+      <c r="J109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110">
+        <v>100</v>
+      </c>
+      <c r="B110">
+        <v>100</v>
+      </c>
+      <c r="C110">
+        <v>100</v>
+      </c>
+      <c r="D110">
+        <v>100</v>
+      </c>
+      <c r="E110">
+        <v>100</v>
+      </c>
+      <c r="F110">
+        <v>100</v>
+      </c>
+      <c r="G110">
+        <v>100</v>
+      </c>
+      <c r="H110">
+        <v>100</v>
+      </c>
+      <c r="I110">
+        <v>100</v>
+      </c>
+      <c r="J110">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111">
+        <v>100</v>
+      </c>
+      <c r="B111">
+        <v>100</v>
+      </c>
+      <c r="C111">
+        <v>100</v>
+      </c>
+      <c r="D111">
+        <v>100</v>
+      </c>
+      <c r="E111">
+        <v>100</v>
+      </c>
+      <c r="F111">
+        <v>100</v>
+      </c>
+      <c r="G111">
+        <v>100</v>
+      </c>
+      <c r="H111">
+        <v>100</v>
+      </c>
+      <c r="I111">
+        <v>100</v>
+      </c>
+      <c r="J111">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112">
+        <v>100</v>
+      </c>
+      <c r="B112">
+        <v>100</v>
+      </c>
+      <c r="C112">
+        <v>100</v>
+      </c>
+      <c r="D112">
+        <v>100</v>
+      </c>
+      <c r="E112">
+        <v>200</v>
+      </c>
+      <c r="F112">
+        <v>200</v>
+      </c>
+      <c r="G112">
+        <v>100</v>
+      </c>
+      <c r="H112">
+        <v>100</v>
+      </c>
+      <c r="I112">
+        <v>100</v>
+      </c>
+      <c r="J112">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113">
+        <v>100</v>
+      </c>
+      <c r="B113">
+        <v>100</v>
+      </c>
+      <c r="C113">
+        <v>100</v>
+      </c>
+      <c r="D113">
+        <v>100</v>
+      </c>
+      <c r="E113">
+        <v>200</v>
+      </c>
+      <c r="F113">
+        <v>200</v>
+      </c>
+      <c r="G113">
+        <v>100</v>
+      </c>
+      <c r="H113">
+        <v>100</v>
+      </c>
+      <c r="I113">
+        <v>100</v>
+      </c>
+      <c r="J113">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114">
+        <v>100</v>
+      </c>
+      <c r="B114">
+        <v>100</v>
+      </c>
+      <c r="C114">
+        <v>100</v>
+      </c>
+      <c r="D114">
+        <v>100</v>
+      </c>
+      <c r="E114">
+        <v>100</v>
+      </c>
+      <c r="F114">
+        <v>100</v>
+      </c>
+      <c r="G114">
+        <v>100</v>
+      </c>
+      <c r="H114">
+        <v>100</v>
+      </c>
+      <c r="I114">
+        <v>100</v>
+      </c>
+      <c r="J114">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115">
+        <v>100</v>
+      </c>
+      <c r="B115">
+        <v>100</v>
+      </c>
+      <c r="C115">
+        <v>100</v>
+      </c>
+      <c r="D115">
+        <v>100</v>
+      </c>
+      <c r="E115">
+        <v>100</v>
+      </c>
+      <c r="F115">
+        <v>100</v>
+      </c>
+      <c r="G115">
+        <v>100</v>
+      </c>
+      <c r="H115">
+        <v>100</v>
+      </c>
+      <c r="I115">
+        <v>100</v>
+      </c>
+      <c r="J115">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116">
+        <v>100</v>
+      </c>
+      <c r="B116">
+        <v>100</v>
+      </c>
+      <c r="C116">
+        <v>100</v>
+      </c>
+      <c r="D116">
+        <v>100</v>
+      </c>
+      <c r="E116">
+        <v>100</v>
+      </c>
+      <c r="F116">
+        <v>100</v>
+      </c>
+      <c r="G116">
+        <v>100</v>
+      </c>
+      <c r="H116">
+        <v>100</v>
+      </c>
+      <c r="I116">
+        <v>100</v>
+      </c>
+      <c r="J116">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117">
+        <v>100</v>
+      </c>
+      <c r="B117">
+        <v>100</v>
+      </c>
+      <c r="C117">
+        <v>100</v>
+      </c>
+      <c r="D117">
+        <v>100</v>
+      </c>
+      <c r="E117">
+        <v>100</v>
+      </c>
+      <c r="F117">
+        <v>100</v>
+      </c>
+      <c r="G117">
+        <v>100</v>
+      </c>
+      <c r="H117">
+        <v>100</v>
+      </c>
+      <c r="I117">
+        <v>100</v>
+      </c>
+      <c r="J117">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -6910,12 +7459,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6924,12 +7473,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/exp_c/slide/data.xlsx
+++ b/exp_c/slide/data.xlsx
@@ -4191,17 +4191,16 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ja-JP"/>
   <c:chart>
-    <c:view3D>
-      <c:rotX val="30"/>
-      <c:rotY val="0"/>
-      <c:perspective val="30"/>
-    </c:view3D>
     <c:plotArea>
       <c:layout/>
-      <c:surface3DChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$A$108:$J$108</c:f>
@@ -4245,6 +4244,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$A$109:$J$109</c:f>
@@ -4288,6 +4290,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$A$110:$J$110</c:f>
@@ -4331,6 +4336,9 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$A$111:$J$111</c:f>
@@ -4374,6 +4382,9 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$A$112:$J$112</c:f>
@@ -4417,6 +4428,9 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$A$113:$J$113</c:f>
@@ -4460,6 +4474,9 @@
         <c:ser>
           <c:idx val="6"/>
           <c:order val="6"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$A$114:$J$114</c:f>
@@ -4503,6 +4520,9 @@
         <c:ser>
           <c:idx val="7"/>
           <c:order val="7"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$A$115:$J$115</c:f>
@@ -4546,6 +4566,9 @@
         <c:ser>
           <c:idx val="8"/>
           <c:order val="8"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$A$116:$J$116</c:f>
@@ -4589,6 +4612,9 @@
         <c:ser>
           <c:idx val="9"/>
           <c:order val="9"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$A$117:$J$117</c:f>
@@ -4629,11 +4655,10 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:bandFmts/>
+        <c:marker val="1"/>
         <c:axId val="109191168"/>
         <c:axId val="109313024"/>
-        <c:axId val="124732288"/>
-      </c:surface3DChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="109191168"/>
         <c:scaling>
@@ -4658,34 +4683,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="109191168"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
-      <c:serAx>
-        <c:axId val="124732288"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="109313024"/>
-        <c:crosses val="autoZero"/>
-      </c:serAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
@@ -5264,8 +5264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:U117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="L123" sqref="L123"/>
+    <sheetView tabSelected="1" topLeftCell="C82" workbookViewId="0">
+      <selection activeCell="K122" sqref="K122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>

--- a/exp_c/slide/data.xlsx
+++ b/exp_c/slide/data.xlsx
@@ -1,16 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2129A7-435D-427E-B967-8AB21EAEFEF1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="465" windowWidth="25605" windowHeight="15045"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$10:$J$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$11:$J$11</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$2:$J$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$3:$J$3</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$4:$J$4</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$5:$J$5</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$6:$J$6</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$A$7:$J$7</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$8:$J$8</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$A$9:$J$9</definedName>
+  </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -24,7 +37,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,30 +91,85 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$J$2</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$7:$J$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$7:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -115,7 +183,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>255</c:v>
@@ -124,466 +192,559 @@
                   <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F820-4412-8749-A378AFFF6B57}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$3:$J$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>255</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$4:$J$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>255</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$5:$J$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>255</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$6:$J$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>255</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$7:$J$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>255</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$8:$J$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>255</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$9:$J$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>255</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$10:$J$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>255</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$11:$J$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>255</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls/>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="105701760"/>
         <c:axId val="105703296"/>
-      </c:lineChart>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$2:$J$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$2:$I$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>255</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-F820-4412-8749-A378AFFF6B57}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$3:$J$3</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$3:$I$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>255</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-F820-4412-8749-A378AFFF6B57}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$4:$J$4</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$4:$I$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>255</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-F820-4412-8749-A378AFFF6B57}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$5:$J$5</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$5:$I$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>255</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-F820-4412-8749-A378AFFF6B57}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$6:$J$6</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$6:$I$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>255</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-F820-4412-8749-A378AFFF6B57}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$8:$J$8</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$8:$I$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>255</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-F820-4412-8749-A378AFFF6B57}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$9:$J$9</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$9:$I$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>255</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-F820-4412-8749-A378AFFF6B57}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$10:$J$10</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$10:$I$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>255</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-F820-4412-8749-A378AFFF6B57}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$11:$J$11</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$11:$I$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>255</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-F820-4412-8749-A378AFFF6B57}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
       <c:catAx>
         <c:axId val="105701760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="105703296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="105703296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="255"/>
+          <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="105701760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="85"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -594,25 +755,77 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$2:$U$2</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$L$7:$U$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$M$7:$T$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -623,478 +836,571 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9E4E-47F9-8BE0-3BFC301395DC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$3:$U$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$4:$U$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$5:$U$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$6:$U$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$7:$U$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$8:$U$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$9:$U$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$10:$U$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$11:$U$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls/>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="107569152"/>
         <c:axId val="107570688"/>
-      </c:lineChart>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$2:$U$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$2:$T$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-9E4E-47F9-8BE0-3BFC301395DC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$3:$U$3</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$3:$T$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>255</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-9E4E-47F9-8BE0-3BFC301395DC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$4:$U$4</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$4:$T$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>255</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-9E4E-47F9-8BE0-3BFC301395DC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$5:$U$5</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$5:$T$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>255</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-9E4E-47F9-8BE0-3BFC301395DC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$6:$U$6</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$6:$T$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>255</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-9E4E-47F9-8BE0-3BFC301395DC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$8:$U$8</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$8:$T$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>255</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-9E4E-47F9-8BE0-3BFC301395DC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$9:$U$9</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$9:$T$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>255</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-9E4E-47F9-8BE0-3BFC301395DC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$10:$U$10</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$10:$T$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>255</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-9E4E-47F9-8BE0-3BFC301395DC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$11:$U$11</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$11:$T$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-9E4E-47F9-8BE0-3BFC301395DC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
       <c:catAx>
         <c:axId val="107569152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="107570688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="107570688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="255"/>
+          <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="107569152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="85"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1105,25 +1411,77 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$32:$J$32</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$37:$J$37</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$37:$I$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1134,10 +1492,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1146,466 +1504,559 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F883-4069-8D75-57A2BBCCB62E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$33:$J$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$34:$J$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$35:$J$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$36:$J$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$37:$J$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$38:$J$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$39:$J$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$40:$J$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$41:$J$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls/>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="107660032"/>
         <c:axId val="107661568"/>
-      </c:lineChart>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$32:$J$32</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$32:$I$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-F883-4069-8D75-57A2BBCCB62E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$33:$J$33</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$33:$I$33</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-F883-4069-8D75-57A2BBCCB62E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$34:$J$34</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$34:$I$34</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-F883-4069-8D75-57A2BBCCB62E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$35:$J$35</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$35:$I$35</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-F883-4069-8D75-57A2BBCCB62E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$36:$J$36</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$36:$I$36</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-F883-4069-8D75-57A2BBCCB62E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$38:$J$38</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$38:$I$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-F883-4069-8D75-57A2BBCCB62E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$39:$J$39</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$39:$I$39</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-F883-4069-8D75-57A2BBCCB62E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$40:$J$40</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$40:$I$40</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-F883-4069-8D75-57A2BBCCB62E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$41:$J$41</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$41:$I$41</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-F883-4069-8D75-57A2BBCCB62E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
       <c:catAx>
         <c:axId val="107660032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="107661568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="107661568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="255"/>
+          <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="107660032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="127.5"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1616,521 +2067,652 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$32:$U$32</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$L$37:$U$37</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$M$37:$T$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-13BA-4B49-8674-1551CF01805C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$33:$U$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$34:$U$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$35:$U$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$36:$U$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$37:$U$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$38:$U$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$39:$U$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$40:$U$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$41:$U$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls/>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="108860160"/>
         <c:axId val="108861696"/>
-      </c:lineChart>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$32:$U$32</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$32:$T$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-13BA-4B49-8674-1551CF01805C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$33:$U$33</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$33:$T$33</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>127</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-13BA-4B49-8674-1551CF01805C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$34:$U$34</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$34:$T$34</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>127</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-13BA-4B49-8674-1551CF01805C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$35:$U$35</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$35:$T$35</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>127</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-13BA-4B49-8674-1551CF01805C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$36:$U$36</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$36:$T$36</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>127</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-13BA-4B49-8674-1551CF01805C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$38:$U$38</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$38:$T$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>127</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-13BA-4B49-8674-1551CF01805C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$39:$U$39</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$39:$T$39</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>127</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-13BA-4B49-8674-1551CF01805C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$40:$U$40</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$40:$T$40</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>127</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-13BA-4B49-8674-1551CF01805C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$41:$U$41</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$41:$T$41</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-13BA-4B49-8674-1551CF01805C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
       <c:catAx>
         <c:axId val="108860160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="108861696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="108861696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="255"/>
+          <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="108860160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="127.5"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2141,17 +2723,39 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="30"/>
       <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
       <c:perspective val="20"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:surface3DChart>
+        <c:wireframe val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2194,6 +2798,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF70-41BF-AD1E-A21E7C21C07F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2237,6 +2846,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DF70-41BF-AD1E-A21E7C21C07F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2280,6 +2894,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DF70-41BF-AD1E-A21E7C21C07F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2323,6 +2942,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DF70-41BF-AD1E-A21E7C21C07F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2366,6 +2990,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DF70-41BF-AD1E-A21E7C21C07F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -2409,6 +3038,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DF70-41BF-AD1E-A21E7C21C07F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -2452,6 +3086,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-DF70-41BF-AD1E-A21E7C21C07F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -2495,6 +3134,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-DF70-41BF-AD1E-A21E7C21C07F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -2538,6 +3182,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-DF70-41BF-AD1E-A21E7C21C07F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -2581,6 +3230,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-DF70-41BF-AD1E-A21E7C21C07F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:bandFmts/>
         <c:axId val="108934272"/>
@@ -2592,22 +3246,29 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="108935808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="108935808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="108934272"/>
         <c:crosses val="autoZero"/>
@@ -2620,6 +3281,8 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
         <c:crossAx val="108935808"/>
         <c:crosses val="autoZero"/>
@@ -2627,7 +3290,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2641,6 +3304,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -2654,16 +3318,38 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="50"/>
       <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:surface3DChart>
+        <c:wireframe val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2706,6 +3392,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8B36-473B-9E9D-D7972C8C929B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2749,6 +3440,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8B36-473B-9E9D-D7972C8C929B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2792,6 +3488,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8B36-473B-9E9D-D7972C8C929B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2835,6 +3536,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8B36-473B-9E9D-D7972C8C929B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2878,6 +3584,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8B36-473B-9E9D-D7972C8C929B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -2921,6 +3632,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8B36-473B-9E9D-D7972C8C929B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -2964,6 +3680,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8B36-473B-9E9D-D7972C8C929B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -3007,6 +3728,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-8B36-473B-9E9D-D7972C8C929B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -3050,6 +3776,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-8B36-473B-9E9D-D7972C8C929B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -3093,6 +3824,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-8B36-473B-9E9D-D7972C8C929B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:bandFmts/>
         <c:axId val="108993152"/>
@@ -3104,22 +3840,29 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="109003136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="109003136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="108993152"/>
         <c:crosses val="autoZero"/>
@@ -3132,6 +3875,8 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
         <c:crossAx val="109003136"/>
         <c:crosses val="autoZero"/>
@@ -3139,7 +3884,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3153,6 +3898,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3163,13 +3909,25 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3215,6 +3973,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C8EF-4509-87BD-BCD8CC648B37}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3261,6 +4025,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C8EF-4509-87BD-BCD8CC648B37}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3307,6 +4077,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C8EF-4509-87BD-BCD8CC648B37}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3353,6 +4129,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C8EF-4509-87BD-BCD8CC648B37}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3399,6 +4181,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C8EF-4509-87BD-BCD8CC648B37}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -3445,6 +4233,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C8EF-4509-87BD-BCD8CC648B37}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -3491,6 +4285,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C8EF-4509-87BD-BCD8CC648B37}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -3537,6 +4337,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C8EF-4509-87BD-BCD8CC648B37}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -3583,6 +4389,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-C8EF-4509-87BD-BCD8CC648B37}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -3629,9 +4441,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-C8EF-4509-87BD-BCD8CC648B37}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="109071360"/>
         <c:axId val="109089536"/>
       </c:lineChart>
@@ -3640,22 +4465,29 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="109089536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="109089536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="109071360"/>
         <c:crosses val="autoZero"/>
@@ -3664,6 +4496,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -3677,13 +4510,25 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3729,6 +4574,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3775,6 +4626,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3821,6 +4678,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3867,6 +4730,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3913,6 +4782,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -3959,6 +4834,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -4005,6 +4886,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -4051,6 +4938,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -4097,6 +4990,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -4143,9 +5042,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="109169280"/>
         <c:axId val="109179264"/>
       </c:lineChart>
@@ -4154,22 +5066,29 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="109179264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="109179264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="109169280"/>
         <c:crosses val="autoZero"/>
@@ -4178,6 +5097,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4188,13 +5108,25 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4240,6 +5172,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF4A-46F6-88E9-381F0ED8B973}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4286,6 +5224,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BF4A-46F6-88E9-381F0ED8B973}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4332,6 +5276,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BF4A-46F6-88E9-381F0ED8B973}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4378,6 +5328,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BF4A-46F6-88E9-381F0ED8B973}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -4424,6 +5380,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BF4A-46F6-88E9-381F0ED8B973}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -4470,6 +5432,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-BF4A-46F6-88E9-381F0ED8B973}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -4516,6 +5484,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-BF4A-46F6-88E9-381F0ED8B973}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -4562,6 +5536,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-BF4A-46F6-88E9-381F0ED8B973}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -4608,6 +5588,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-BF4A-46F6-88E9-381F0ED8B973}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -4654,8 +5640,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-BF4A-46F6-88E9-381F0ED8B973}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="109191168"/>
         <c:axId val="109313024"/>
       </c:lineChart>
@@ -4664,22 +5664,29 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="109313024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="109313024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="109191168"/>
         <c:crosses val="autoZero"/>
@@ -4687,6 +5694,8 @@
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4713,7 +5722,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4743,7 +5758,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="グラフ 3"/>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4773,7 +5794,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="グラフ 4"/>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4803,7 +5830,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="グラフ 5"/>
+        <xdr:cNvPr id="6" name="グラフ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4833,7 +5866,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="グラフ 6"/>
+        <xdr:cNvPr id="7" name="グラフ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4863,7 +5902,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="グラフ 7"/>
+        <xdr:cNvPr id="8" name="グラフ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4893,7 +5938,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="グラフ 8"/>
+        <xdr:cNvPr id="9" name="グラフ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4925,7 +5976,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="グラフ 9"/>
+        <xdr:cNvPr id="10" name="グラフ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4957,7 +6014,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="グラフ 10"/>
+        <xdr:cNvPr id="11" name="グラフ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5261,11 +6324,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:U117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C82" workbookViewId="0">
-      <selection activeCell="K122" sqref="K122"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -7459,7 +8522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7473,7 +8536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/exp_c/slide/data.xlsx
+++ b/exp_c/slide/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2129A7-435D-427E-B967-8AB21EAEFEF1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCFF9EA-AEF3-4706-AACB-AC8C966F0B0F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,18 +12,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$10:$J$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$11:$J$11</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$2:$J$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$3:$J$3</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$4:$J$4</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$5:$J$5</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$6:$J$6</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$A$7:$J$7</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$8:$J$8</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$A$9:$J$9</definedName>
-  </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -120,8 +108,8 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strLit>
@@ -162,11 +150,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$7:$J$7</c15:sqref>
+                    <c15:sqref>Sheet1!$A$6:$J$6</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$7:$I$7</c:f>
+              <c:f>Sheet1!$B$6:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -197,9 +185,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-F820-4412-8749-A378AFFF6B57}"/>
+              <c16:uniqueId val="{00000000-F820-4412-8749-A378AFFF6B57}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -214,496 +202,7 @@
         <c:gapWidth val="150"/>
         <c:axId val="105701760"/>
         <c:axId val="105703296"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$2:$J$2</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$I$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>255</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-F820-4412-8749-A378AFFF6B57}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$3:$J$3</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$3:$I$3</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>255</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-F820-4412-8749-A378AFFF6B57}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$4:$J$4</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$4:$I$4</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>255</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-F820-4412-8749-A378AFFF6B57}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$5:$J$5</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$5:$I$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>255</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-F820-4412-8749-A378AFFF6B57}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$6:$J$6</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$6:$I$6</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>255</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-F820-4412-8749-A378AFFF6B57}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="6"/>
-                <c:order val="6"/>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$8:$J$8</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$8:$I$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>255</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-F820-4412-8749-A378AFFF6B57}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="7"/>
-                <c:order val="7"/>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$9:$J$9</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$9:$I$9</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>255</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000007-F820-4412-8749-A378AFFF6B57}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="8"/>
-                <c:order val="8"/>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$10:$J$10</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$10:$I$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>255</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000008-F820-4412-8749-A378AFFF6B57}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="9"/>
-                <c:order val="9"/>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$11:$J$11</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$11:$I$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>255</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000009-F820-4412-8749-A378AFFF6B57}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:barChart>
       <c:catAx>
         <c:axId val="105701760"/>
@@ -712,6 +211,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -754,7 +254,667 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$64:$J$64</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$64:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0183-4939-92D5-8FC616091C40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="109071360"/>
+        <c:axId val="109089536"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$61:$J$61</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$61:$I$61</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-0183-4939-92D5-8FC616091C40}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$62:$J$62</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$62:$I$62</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>170</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-0183-4939-92D5-8FC616091C40}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$63:$J$63</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$63:$I$63</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>170</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-0183-4939-92D5-8FC616091C40}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$65:$J$65</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$65:$I$65</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>170</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-0183-4939-92D5-8FC616091C40}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$66:$J$66</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$66:$I$66</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>170</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-0183-4939-92D5-8FC616091C40}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$67:$J$67</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$67:$I$67</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>170</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-0183-4939-92D5-8FC616091C40}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$68:$J$68</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$68:$I$68</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>170</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-0183-4939-92D5-8FC616091C40}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$69:$J$69</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$69:$I$69</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>170</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-0183-4939-92D5-8FC616091C40}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$70:$J$70</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$70:$I$70</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-0183-4939-92D5-8FC616091C40}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="109071360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="109089536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="109089536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="255"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="109071360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="85"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -818,11 +978,1983 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$L$7:$U$7</c15:sqref>
+                    <c15:sqref>Sheet1!$A$66:$J$66</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$M$7:$T$7</c:f>
+              <c:f>Sheet1!$B$66:$I$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E530-4181-8F29-FF1D9CBC37ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="109071360"/>
+        <c:axId val="109089536"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$61:$J$61</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$61:$I$61</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-E530-4181-8F29-FF1D9CBC37ED}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$62:$J$62</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$62:$I$62</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>170</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-E530-4181-8F29-FF1D9CBC37ED}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$63:$J$63</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$63:$I$63</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>170</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-E530-4181-8F29-FF1D9CBC37ED}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$64:$J$64</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$64:$I$64</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>170</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-E530-4181-8F29-FF1D9CBC37ED}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$65:$J$65</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$65:$I$65</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>170</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-E530-4181-8F29-FF1D9CBC37ED}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$67:$J$67</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$67:$I$67</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>170</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-E530-4181-8F29-FF1D9CBC37ED}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$68:$J$68</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$68:$I$68</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>170</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-E530-4181-8F29-FF1D9CBC37ED}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$69:$J$69</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$69:$I$69</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>170</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-E530-4181-8F29-FF1D9CBC37ED}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$70:$J$70</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$70:$I$70</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-E530-4181-8F29-FF1D9CBC37ED}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="109071360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="109089536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="109089536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="255"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="109071360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="85"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$L$64:$U$64</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$M$64:$T$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A211-4FAD-8E98-85BA8E8E8BF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="109169280"/>
+        <c:axId val="109179264"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$61:$U$61</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$61:$T$61</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-A211-4FAD-8E98-85BA8E8E8BF2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$62:$U$62</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$62:$T$62</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-A211-4FAD-8E98-85BA8E8E8BF2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$63:$U$63</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$63:$T$63</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-A211-4FAD-8E98-85BA8E8E8BF2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$65:$U$65</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$65:$T$65</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-A211-4FAD-8E98-85BA8E8E8BF2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$66:$U$66</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$66:$T$66</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-A211-4FAD-8E98-85BA8E8E8BF2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$67:$U$67</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$67:$T$67</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-A211-4FAD-8E98-85BA8E8E8BF2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$68:$U$68</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$68:$T$68</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-A211-4FAD-8E98-85BA8E8E8BF2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$69:$U$69</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$69:$T$69</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-A211-4FAD-8E98-85BA8E8E8BF2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$70:$U$70</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$70:$T$70</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-A211-4FAD-8E98-85BA8E8E8BF2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="109169280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="109179264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="109179264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="255"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="109169280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="85"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$L$66:$U$66</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$M$66:$T$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9E39-45C0-A00A-C75734C6A42A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="109169280"/>
+        <c:axId val="109179264"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$61:$U$61</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$61:$T$61</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-9E39-45C0-A00A-C75734C6A42A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$62:$U$62</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$62:$T$62</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-9E39-45C0-A00A-C75734C6A42A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$63:$U$63</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$63:$T$63</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-9E39-45C0-A00A-C75734C6A42A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$64:$U$64</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$64:$T$64</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-9E39-45C0-A00A-C75734C6A42A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$65:$U$65</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$65:$T$65</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-9E39-45C0-A00A-C75734C6A42A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$67:$U$67</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$67:$T$67</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-9E39-45C0-A00A-C75734C6A42A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$68:$U$68</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$68:$T$68</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-9E39-45C0-A00A-C75734C6A42A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$69:$U$69</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$69:$T$69</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-9E39-45C0-A00A-C75734C6A42A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$70:$U$70</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$70:$T$70</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-9E39-45C0-A00A-C75734C6A42A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="109169280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="109179264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="109179264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="255"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="109169280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="85"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$L$6:$U$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$M$6:$T$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -853,9 +2985,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-9E4E-47F9-8BE0-3BFC301395DC}"/>
+              <c16:uniqueId val="{00000000-9E4E-47F9-8BE0-3BFC301395DC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -870,496 +3002,7 @@
         <c:gapWidth val="150"/>
         <c:axId val="107569152"/>
         <c:axId val="107570688"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$2:$U$2</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$2:$T$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-9E4E-47F9-8BE0-3BFC301395DC}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$3:$U$3</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$3:$T$3</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>170</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>255</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-9E4E-47F9-8BE0-3BFC301395DC}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$4:$U$4</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$4:$T$4</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>170</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>255</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-9E4E-47F9-8BE0-3BFC301395DC}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$5:$U$5</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$5:$T$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>170</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>255</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-9E4E-47F9-8BE0-3BFC301395DC}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$6:$U$6</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$6:$T$6</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>170</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>255</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-9E4E-47F9-8BE0-3BFC301395DC}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="6"/>
-                <c:order val="6"/>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$8:$U$8</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$8:$T$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>170</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>255</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-9E4E-47F9-8BE0-3BFC301395DC}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="7"/>
-                <c:order val="7"/>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$9:$U$9</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$9:$T$9</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>170</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>255</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000007-9E4E-47F9-8BE0-3BFC301395DC}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="8"/>
-                <c:order val="8"/>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$10:$U$10</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$10:$T$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>170</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>255</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000008-9E4E-47F9-8BE0-3BFC301395DC}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="9"/>
-                <c:order val="9"/>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$11:$U$11</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$11:$T$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000009-9E4E-47F9-8BE0-3BFC301395DC}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:barChart>
       <c:catAx>
         <c:axId val="107569152"/>
@@ -1368,6 +3011,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1432,8 +3076,8 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strLit>
@@ -1509,9 +3153,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-F883-4069-8D75-57A2BBCCB62E}"/>
+              <c16:uniqueId val="{00000000-F883-4069-8D75-57A2BBCCB62E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1526,496 +3170,7 @@
         <c:gapWidth val="150"/>
         <c:axId val="107660032"/>
         <c:axId val="107661568"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$32:$J$32</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$32:$I$32</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-F883-4069-8D75-57A2BBCCB62E}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$33:$J$33</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$33:$I$33</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-F883-4069-8D75-57A2BBCCB62E}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$34:$J$34</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$34:$I$34</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-F883-4069-8D75-57A2BBCCB62E}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$35:$J$35</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$35:$I$35</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-F883-4069-8D75-57A2BBCCB62E}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$36:$J$36</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$36:$I$36</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-F883-4069-8D75-57A2BBCCB62E}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="6"/>
-                <c:order val="6"/>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$38:$J$38</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$38:$I$38</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-F883-4069-8D75-57A2BBCCB62E}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="7"/>
-                <c:order val="7"/>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$39:$J$39</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$39:$I$39</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000007-F883-4069-8D75-57A2BBCCB62E}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="8"/>
-                <c:order val="8"/>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$40:$J$40</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$40:$I$40</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000008-F883-4069-8D75-57A2BBCCB62E}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="9"/>
-                <c:order val="9"/>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$41:$J$41</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$41:$I$41</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000009-F883-4069-8D75-57A2BBCCB62E}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:barChart>
       <c:catAx>
         <c:axId val="107660032"/>
@@ -2024,6 +3179,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2088,8 +3244,8 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strLit>
@@ -2165,9 +3321,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-13BA-4B49-8674-1551CF01805C}"/>
+              <c16:uniqueId val="{00000000-13BA-4B49-8674-1551CF01805C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2182,496 +3338,7 @@
         <c:gapWidth val="150"/>
         <c:axId val="108860160"/>
         <c:axId val="108861696"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$32:$U$32</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$32:$T$32</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-13BA-4B49-8674-1551CF01805C}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$33:$U$33</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$33:$T$33</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>127</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-13BA-4B49-8674-1551CF01805C}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$34:$U$34</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$34:$T$34</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>127</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-13BA-4B49-8674-1551CF01805C}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$35:$U$35</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$35:$T$35</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>127</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-13BA-4B49-8674-1551CF01805C}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$36:$U$36</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$36:$T$36</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>127</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-13BA-4B49-8674-1551CF01805C}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="6"/>
-                <c:order val="6"/>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$38:$U$38</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$38:$T$38</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>127</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-13BA-4B49-8674-1551CF01805C}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="7"/>
-                <c:order val="7"/>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$39:$U$39</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$39:$T$39</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>127</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000007-13BA-4B49-8674-1551CF01805C}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="8"/>
-                <c:order val="8"/>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$40:$U$40</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$40:$T$40</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>127</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000008-13BA-4B49-8674-1551CF01805C}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="9"/>
-                <c:order val="9"/>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$41:$U$41</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$41:$T$41</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000009-13BA-4B49-8674-1551CF01805C}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:barChart>
       <c:catAx>
         <c:axId val="108860160"/>
@@ -2680,6 +3347,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2738,16 +3406,22 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="30"/>
+      <c:rotX val="20"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
       <c:perspective val="20"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
     </c:floor>
     <c:sideWall>
       <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
     </c:sideWall>
     <c:backWall>
       <c:thickness val="0"/>
@@ -2755,66 +3429,59 @@
     <c:plotArea>
       <c:layout/>
       <c:surface3DChart>
-        <c:wireframe val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$61:$J$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DF70-41BF-AD1E-A21E7C21C07F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
+        <c:wireframe val="1"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$62:$J$62</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$62:$J$62</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$62:$I$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>170</c:v>
@@ -2836,12 +3503,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2855,14 +3516,55 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$63:$J$63</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$63:$J$63</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$63:$I$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>170</c:v>
@@ -2884,12 +3586,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2903,14 +3599,55 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$64:$J$64</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$64:$J$64</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$64:$I$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>170</c:v>
@@ -2919,25 +3656,19 @@
                   <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>170</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>255</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2951,41 +3682,76 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$65:$J$65</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$65:$J$65</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$65:$I$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>170</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>255</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>255</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2999,41 +3765,76 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$66:$J$66</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$66:$J$66</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$66:$I$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>170</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>255</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>255</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3047,14 +3848,55 @@
         <c:ser>
           <c:idx val="6"/>
           <c:order val="6"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$67:$J$67</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$67:$J$67</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$67:$I$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>170</c:v>
@@ -3063,25 +3905,19 @@
                   <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>170</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>255</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3095,14 +3931,55 @@
         <c:ser>
           <c:idx val="7"/>
           <c:order val="7"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$68:$J$68</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$68:$J$68</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$68:$I$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>170</c:v>
@@ -3124,12 +4001,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3143,14 +4014,55 @@
         <c:ser>
           <c:idx val="8"/>
           <c:order val="8"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$69:$J$69</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$69:$J$69</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$69:$I$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>170</c:v>
@@ -3172,12 +4084,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3188,58 +4094,120 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$70:$J$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-DF70-41BF-AD1E-A21E7C21C07F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:bandFmts/>
         <c:axId val="108934272"/>
         <c:axId val="108935808"/>
         <c:axId val="108930368"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredSurfaceSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$61:$J$61</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$61:$I$61</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-DF70-41BF-AD1E-A21E7C21C07F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredSurfaceSeries>
+            <c15:filteredSurfaceSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$70:$J$70</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$70:$I$70</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-DF70-41BF-AD1E-A21E7C21C07F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredSurfaceSeries>
+          </c:ext>
+        </c:extLst>
       </c:surface3DChart>
       <c:catAx>
         <c:axId val="108934272"/>
@@ -3251,6 +4219,9 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+        </c:spPr>
         <c:crossAx val="108935808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -3262,6 +4233,8 @@
         <c:axId val="108935808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="255"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3273,6 +4246,7 @@
         <c:crossAx val="108934272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="85"/>
       </c:valAx>
       <c:serAx>
         <c:axId val="108930368"/>
@@ -3287,10 +4261,21 @@
         <c:crossAx val="108935808"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="legacyWireframe"/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3308,6 +4293,13 @@
   </c:chart>
   <c:spPr>
     <a:noFill/>
+    <a:effectLst>
+      <a:softEdge rad="0"/>
+    </a:effectLst>
+    <a:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </a:scene3d>
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
@@ -3333,9 +4325,10 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="50"/>
+      <c:rotX val="20"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="20"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -3349,66 +4342,59 @@
     <c:plotArea>
       <c:layout/>
       <c:surface3DChart>
-        <c:wireframe val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$61:$U$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8B36-473B-9E9D-D7972C8C929B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
+        <c:wireframe val="1"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$62:$U$62</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$L$62:$U$62</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$M$62:$T$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>100</c:v>
@@ -3430,12 +4416,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3449,14 +4429,55 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$63:$U$63</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$L$63:$U$63</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$M$63:$T$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>100</c:v>
@@ -3478,12 +4499,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3497,41 +4512,76 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$64:$U$64</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$L$64:$U$64</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$M$64:$T$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3545,41 +4595,76 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$65:$U$65</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$L$65:$U$65</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$M$65:$T$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>255</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3593,41 +4678,76 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$66:$U$66</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$L$66:$U$66</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$M$66:$T$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>255</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3641,41 +4761,76 @@
         <c:ser>
           <c:idx val="6"/>
           <c:order val="6"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$67:$U$67</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$L$67:$U$67</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$M$67:$T$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3689,14 +4844,55 @@
         <c:ser>
           <c:idx val="7"/>
           <c:order val="7"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$68:$U$68</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$L$68:$U$68</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$M$68:$T$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>100</c:v>
@@ -3718,12 +4914,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3737,14 +4927,55 @@
         <c:ser>
           <c:idx val="8"/>
           <c:order val="8"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$69:$U$69</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$L$69:$U$69</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$M$69:$T$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>100</c:v>
@@ -3766,12 +4997,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3782,58 +5007,120 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$70:$U$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-8B36-473B-9E9D-D7972C8C929B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:bandFmts/>
         <c:axId val="108993152"/>
         <c:axId val="109003136"/>
         <c:axId val="108973120"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredSurfaceSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$61:$U$61</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$61:$T$61</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-8B36-473B-9E9D-D7972C8C929B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredSurfaceSeries>
+            <c15:filteredSurfaceSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$70:$U$70</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$70:$T$70</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-8B36-473B-9E9D-D7972C8C929B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredSurfaceSeries>
+          </c:ext>
+        </c:extLst>
       </c:surface3DChart>
       <c:catAx>
         <c:axId val="108993152"/>
@@ -3856,6 +5143,8 @@
         <c:axId val="109003136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="255"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3867,6 +5156,7 @@
         <c:crossAx val="108993152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="85"/>
       </c:valAx>
       <c:serAx>
         <c:axId val="108973120"/>
@@ -3925,526 +5215,91 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$61:$J$61</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$62:$J$62</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$62:$I$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C8EF-4509-87BD-BCD8CC648B37}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$62:$J$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C8EF-4509-87BD-BCD8CC648B37}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$63:$J$63</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C8EF-4509-87BD-BCD8CC648B37}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$64:$J$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C8EF-4509-87BD-BCD8CC648B37}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$65:$J$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C8EF-4509-87BD-BCD8CC648B37}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$66:$J$66</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-C8EF-4509-87BD-BCD8CC648B37}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$67:$J$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-C8EF-4509-87BD-BCD8CC648B37}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$68:$J$68</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-C8EF-4509-87BD-BCD8CC648B37}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$69:$J$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-C8EF-4509-87BD-BCD8CC648B37}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$70:$J$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-C8EF-4509-87BD-BCD8CC648B37}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4456,10 +5311,500 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="109071360"/>
         <c:axId val="109089536"/>
-      </c:lineChart>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$61:$J$61</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$61:$I$61</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-C8EF-4509-87BD-BCD8CC648B37}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$63:$J$63</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$63:$I$63</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>170</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-C8EF-4509-87BD-BCD8CC648B37}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$64:$J$64</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$64:$I$64</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>170</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-C8EF-4509-87BD-BCD8CC648B37}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$65:$J$65</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$65:$I$65</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>170</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-C8EF-4509-87BD-BCD8CC648B37}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$66:$J$66</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$66:$I$66</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>170</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-C8EF-4509-87BD-BCD8CC648B37}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$67:$J$67</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$67:$I$67</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>170</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-C8EF-4509-87BD-BCD8CC648B37}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$68:$J$68</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$68:$I$68</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>170</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-C8EF-4509-87BD-BCD8CC648B37}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$69:$J$69</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$69:$I$69</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>170</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-C8EF-4509-87BD-BCD8CC648B37}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$70:$J$70</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$70:$I$70</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-C8EF-4509-87BD-BCD8CC648B37}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
       <c:catAx>
         <c:axId val="109071360"/>
         <c:scaling>
@@ -4481,6 +5826,8 @@
         <c:axId val="109089536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="255"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4492,6 +5839,7 @@
         <c:crossAx val="109071360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="85"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -4526,526 +5874,91 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$61:$U$61</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$L$62:$U$62</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$M$62:$T$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$62:$U$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$63:$U$63</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$64:$U$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$65:$U$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$66:$U$66</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$67:$U$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$68:$U$68</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$69:$U$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$70:$U$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5057,10 +5970,500 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="109169280"/>
         <c:axId val="109179264"/>
-      </c:lineChart>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$61:$U$61</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$61:$T$61</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$63:$U$63</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$63:$T$63</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$64:$U$64</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$64:$T$64</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$65:$U$65</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$65:$T$65</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$66:$U$66</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$66:$T$66</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$67:$U$67</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$67:$T$67</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$68:$U$68</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$68:$T$68</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$69:$U$69</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$69:$T$69</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$L$70:$U$70</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$70:$T$70</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
       <c:catAx>
         <c:axId val="109169280"/>
         <c:scaling>
@@ -5082,6 +6485,7 @@
         <c:axId val="109179264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="255"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5093,6 +6497,7 @@
         <c:crossAx val="109169280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="85"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -5135,7 +6540,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$108:$J$108</c:f>
+              <c:f>Sheet1!$B$148:$K$148</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5187,7 +6592,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$109:$J$109</c:f>
+              <c:f>Sheet1!$B$149:$K$149</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5239,7 +6644,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$110:$J$110</c:f>
+              <c:f>Sheet1!$B$150:$K$150</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5291,7 +6696,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$111:$J$111</c:f>
+              <c:f>Sheet1!$B$151:$K$151</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5343,7 +6748,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$112:$J$112</c:f>
+              <c:f>Sheet1!$B$152:$K$152</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5395,7 +6800,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$113:$J$113</c:f>
+              <c:f>Sheet1!$B$153:$K$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5447,7 +6852,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$114:$J$114</c:f>
+              <c:f>Sheet1!$B$154:$K$154</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5499,7 +6904,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$115:$J$115</c:f>
+              <c:f>Sheet1!$B$155:$K$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5551,7 +6956,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$116:$J$116</c:f>
+              <c:f>Sheet1!$B$156:$K$156</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5603,7 +7008,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$117:$J$117</c:f>
+              <c:f>Sheet1!$B$157:$K$157</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5964,15 +7369,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>644525</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>212725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>415925</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>212725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6001,16 +7406,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6030,6 +7435,158 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="グラフ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CF825D9-5322-4F83-8D7F-EA56294DBF8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="グラフ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79894DCF-5D06-467F-B510-6A27CB4C7179}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="グラフ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF493DBF-646A-4217-86AD-89C6D2FBADAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="グラフ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D74CDBA-45B2-4C05-ABCD-5AEDB4618C95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6325,10 +7882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:U117"/>
+  <dimension ref="A2:U157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+    <sheetView tabSelected="1" topLeftCell="C100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U125" sqref="U125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -8193,323 +9750,323 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
-      <c r="A108">
-        <v>100</v>
-      </c>
-      <c r="B108">
-        <v>100</v>
-      </c>
-      <c r="C108">
-        <v>100</v>
-      </c>
-      <c r="D108">
-        <v>100</v>
-      </c>
-      <c r="E108">
-        <v>100</v>
-      </c>
-      <c r="F108">
-        <v>100</v>
-      </c>
-      <c r="G108">
-        <v>100</v>
-      </c>
-      <c r="H108">
-        <v>100</v>
-      </c>
-      <c r="I108">
-        <v>100</v>
-      </c>
-      <c r="J108">
+    <row r="148" spans="2:11">
+      <c r="B148">
+        <v>100</v>
+      </c>
+      <c r="C148">
+        <v>100</v>
+      </c>
+      <c r="D148">
+        <v>100</v>
+      </c>
+      <c r="E148">
+        <v>100</v>
+      </c>
+      <c r="F148">
+        <v>100</v>
+      </c>
+      <c r="G148">
+        <v>100</v>
+      </c>
+      <c r="H148">
+        <v>100</v>
+      </c>
+      <c r="I148">
+        <v>100</v>
+      </c>
+      <c r="J148">
+        <v>100</v>
+      </c>
+      <c r="K148">
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
-      <c r="A109">
-        <v>100</v>
-      </c>
-      <c r="B109">
-        <v>100</v>
-      </c>
-      <c r="C109">
-        <v>100</v>
-      </c>
-      <c r="D109">
-        <v>100</v>
-      </c>
-      <c r="E109">
-        <v>100</v>
-      </c>
-      <c r="F109">
-        <v>100</v>
-      </c>
-      <c r="G109">
-        <v>100</v>
-      </c>
-      <c r="H109">
-        <v>100</v>
-      </c>
-      <c r="I109">
-        <v>100</v>
-      </c>
-      <c r="J109">
+    <row r="149" spans="2:11">
+      <c r="B149">
+        <v>100</v>
+      </c>
+      <c r="C149">
+        <v>100</v>
+      </c>
+      <c r="D149">
+        <v>100</v>
+      </c>
+      <c r="E149">
+        <v>100</v>
+      </c>
+      <c r="F149">
+        <v>100</v>
+      </c>
+      <c r="G149">
+        <v>100</v>
+      </c>
+      <c r="H149">
+        <v>100</v>
+      </c>
+      <c r="I149">
+        <v>100</v>
+      </c>
+      <c r="J149">
+        <v>100</v>
+      </c>
+      <c r="K149">
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
-      <c r="A110">
-        <v>100</v>
-      </c>
-      <c r="B110">
-        <v>100</v>
-      </c>
-      <c r="C110">
-        <v>100</v>
-      </c>
-      <c r="D110">
-        <v>100</v>
-      </c>
-      <c r="E110">
-        <v>100</v>
-      </c>
-      <c r="F110">
-        <v>100</v>
-      </c>
-      <c r="G110">
-        <v>100</v>
-      </c>
-      <c r="H110">
-        <v>100</v>
-      </c>
-      <c r="I110">
-        <v>100</v>
-      </c>
-      <c r="J110">
+    <row r="150" spans="2:11">
+      <c r="B150">
+        <v>100</v>
+      </c>
+      <c r="C150">
+        <v>100</v>
+      </c>
+      <c r="D150">
+        <v>100</v>
+      </c>
+      <c r="E150">
+        <v>100</v>
+      </c>
+      <c r="F150">
+        <v>100</v>
+      </c>
+      <c r="G150">
+        <v>100</v>
+      </c>
+      <c r="H150">
+        <v>100</v>
+      </c>
+      <c r="I150">
+        <v>100</v>
+      </c>
+      <c r="J150">
+        <v>100</v>
+      </c>
+      <c r="K150">
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
-      <c r="A111">
-        <v>100</v>
-      </c>
-      <c r="B111">
-        <v>100</v>
-      </c>
-      <c r="C111">
-        <v>100</v>
-      </c>
-      <c r="D111">
-        <v>100</v>
-      </c>
-      <c r="E111">
-        <v>100</v>
-      </c>
-      <c r="F111">
-        <v>100</v>
-      </c>
-      <c r="G111">
-        <v>100</v>
-      </c>
-      <c r="H111">
-        <v>100</v>
-      </c>
-      <c r="I111">
-        <v>100</v>
-      </c>
-      <c r="J111">
+    <row r="151" spans="2:11">
+      <c r="B151">
+        <v>100</v>
+      </c>
+      <c r="C151">
+        <v>100</v>
+      </c>
+      <c r="D151">
+        <v>100</v>
+      </c>
+      <c r="E151">
+        <v>100</v>
+      </c>
+      <c r="F151">
+        <v>100</v>
+      </c>
+      <c r="G151">
+        <v>100</v>
+      </c>
+      <c r="H151">
+        <v>100</v>
+      </c>
+      <c r="I151">
+        <v>100</v>
+      </c>
+      <c r="J151">
+        <v>100</v>
+      </c>
+      <c r="K151">
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
-      <c r="A112">
-        <v>100</v>
-      </c>
-      <c r="B112">
-        <v>100</v>
-      </c>
-      <c r="C112">
-        <v>100</v>
-      </c>
-      <c r="D112">
-        <v>100</v>
-      </c>
-      <c r="E112">
+    <row r="152" spans="2:11">
+      <c r="B152">
+        <v>100</v>
+      </c>
+      <c r="C152">
+        <v>100</v>
+      </c>
+      <c r="D152">
+        <v>100</v>
+      </c>
+      <c r="E152">
+        <v>100</v>
+      </c>
+      <c r="F152">
         <v>200</v>
       </c>
-      <c r="F112">
+      <c r="G152">
         <v>200</v>
       </c>
-      <c r="G112">
-        <v>100</v>
-      </c>
-      <c r="H112">
-        <v>100</v>
-      </c>
-      <c r="I112">
-        <v>100</v>
-      </c>
-      <c r="J112">
+      <c r="H152">
+        <v>100</v>
+      </c>
+      <c r="I152">
+        <v>100</v>
+      </c>
+      <c r="J152">
+        <v>100</v>
+      </c>
+      <c r="K152">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
-      <c r="A113">
-        <v>100</v>
-      </c>
-      <c r="B113">
-        <v>100</v>
-      </c>
-      <c r="C113">
-        <v>100</v>
-      </c>
-      <c r="D113">
-        <v>100</v>
-      </c>
-      <c r="E113">
+    <row r="153" spans="2:11">
+      <c r="B153">
+        <v>100</v>
+      </c>
+      <c r="C153">
+        <v>100</v>
+      </c>
+      <c r="D153">
+        <v>100</v>
+      </c>
+      <c r="E153">
+        <v>100</v>
+      </c>
+      <c r="F153">
         <v>200</v>
       </c>
-      <c r="F113">
+      <c r="G153">
         <v>200</v>
       </c>
-      <c r="G113">
-        <v>100</v>
-      </c>
-      <c r="H113">
-        <v>100</v>
-      </c>
-      <c r="I113">
-        <v>100</v>
-      </c>
-      <c r="J113">
+      <c r="H153">
+        <v>100</v>
+      </c>
+      <c r="I153">
+        <v>100</v>
+      </c>
+      <c r="J153">
+        <v>100</v>
+      </c>
+      <c r="K153">
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
-      <c r="A114">
-        <v>100</v>
-      </c>
-      <c r="B114">
-        <v>100</v>
-      </c>
-      <c r="C114">
-        <v>100</v>
-      </c>
-      <c r="D114">
-        <v>100</v>
-      </c>
-      <c r="E114">
-        <v>100</v>
-      </c>
-      <c r="F114">
-        <v>100</v>
-      </c>
-      <c r="G114">
-        <v>100</v>
-      </c>
-      <c r="H114">
-        <v>100</v>
-      </c>
-      <c r="I114">
-        <v>100</v>
-      </c>
-      <c r="J114">
+    <row r="154" spans="2:11">
+      <c r="B154">
+        <v>100</v>
+      </c>
+      <c r="C154">
+        <v>100</v>
+      </c>
+      <c r="D154">
+        <v>100</v>
+      </c>
+      <c r="E154">
+        <v>100</v>
+      </c>
+      <c r="F154">
+        <v>100</v>
+      </c>
+      <c r="G154">
+        <v>100</v>
+      </c>
+      <c r="H154">
+        <v>100</v>
+      </c>
+      <c r="I154">
+        <v>100</v>
+      </c>
+      <c r="J154">
+        <v>100</v>
+      </c>
+      <c r="K154">
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
-      <c r="A115">
-        <v>100</v>
-      </c>
-      <c r="B115">
-        <v>100</v>
-      </c>
-      <c r="C115">
-        <v>100</v>
-      </c>
-      <c r="D115">
-        <v>100</v>
-      </c>
-      <c r="E115">
-        <v>100</v>
-      </c>
-      <c r="F115">
-        <v>100</v>
-      </c>
-      <c r="G115">
-        <v>100</v>
-      </c>
-      <c r="H115">
-        <v>100</v>
-      </c>
-      <c r="I115">
-        <v>100</v>
-      </c>
-      <c r="J115">
+    <row r="155" spans="2:11">
+      <c r="B155">
+        <v>100</v>
+      </c>
+      <c r="C155">
+        <v>100</v>
+      </c>
+      <c r="D155">
+        <v>100</v>
+      </c>
+      <c r="E155">
+        <v>100</v>
+      </c>
+      <c r="F155">
+        <v>100</v>
+      </c>
+      <c r="G155">
+        <v>100</v>
+      </c>
+      <c r="H155">
+        <v>100</v>
+      </c>
+      <c r="I155">
+        <v>100</v>
+      </c>
+      <c r="J155">
+        <v>100</v>
+      </c>
+      <c r="K155">
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
-      <c r="A116">
-        <v>100</v>
-      </c>
-      <c r="B116">
-        <v>100</v>
-      </c>
-      <c r="C116">
-        <v>100</v>
-      </c>
-      <c r="D116">
-        <v>100</v>
-      </c>
-      <c r="E116">
-        <v>100</v>
-      </c>
-      <c r="F116">
-        <v>100</v>
-      </c>
-      <c r="G116">
-        <v>100</v>
-      </c>
-      <c r="H116">
-        <v>100</v>
-      </c>
-      <c r="I116">
-        <v>100</v>
-      </c>
-      <c r="J116">
+    <row r="156" spans="2:11">
+      <c r="B156">
+        <v>100</v>
+      </c>
+      <c r="C156">
+        <v>100</v>
+      </c>
+      <c r="D156">
+        <v>100</v>
+      </c>
+      <c r="E156">
+        <v>100</v>
+      </c>
+      <c r="F156">
+        <v>100</v>
+      </c>
+      <c r="G156">
+        <v>100</v>
+      </c>
+      <c r="H156">
+        <v>100</v>
+      </c>
+      <c r="I156">
+        <v>100</v>
+      </c>
+      <c r="J156">
+        <v>100</v>
+      </c>
+      <c r="K156">
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
-      <c r="A117">
-        <v>100</v>
-      </c>
-      <c r="B117">
-        <v>100</v>
-      </c>
-      <c r="C117">
-        <v>100</v>
-      </c>
-      <c r="D117">
-        <v>100</v>
-      </c>
-      <c r="E117">
-        <v>100</v>
-      </c>
-      <c r="F117">
-        <v>100</v>
-      </c>
-      <c r="G117">
-        <v>100</v>
-      </c>
-      <c r="H117">
-        <v>100</v>
-      </c>
-      <c r="I117">
-        <v>100</v>
-      </c>
-      <c r="J117">
+    <row r="157" spans="2:11">
+      <c r="B157">
+        <v>100</v>
+      </c>
+      <c r="C157">
+        <v>100</v>
+      </c>
+      <c r="D157">
+        <v>100</v>
+      </c>
+      <c r="E157">
+        <v>100</v>
+      </c>
+      <c r="F157">
+        <v>100</v>
+      </c>
+      <c r="G157">
+        <v>100</v>
+      </c>
+      <c r="H157">
+        <v>100</v>
+      </c>
+      <c r="I157">
+        <v>100</v>
+      </c>
+      <c r="J157">
+        <v>100</v>
+      </c>
+      <c r="K157">
         <v>100</v>
       </c>
     </row>

--- a/exp_c/slide/data.xlsx
+++ b/exp_c/slide/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCFF9EA-AEF3-4706-AACB-AC8C966F0B0F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DA249E-1317-414D-951A-ABEA2CED879D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,14 +103,12 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strLit>
               <c:ptCount val="8"/>
@@ -185,6 +183,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F820-4412-8749-A378AFFF6B57}"/>
@@ -199,11 +198,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="105701760"/>
         <c:axId val="105703296"/>
-        <c:extLst/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="105701760"/>
         <c:scaling>
@@ -211,6 +210,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -271,14 +271,16 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+          </c:marker>
           <c:cat>
             <c:strLit>
               <c:ptCount val="8"/>
@@ -353,6 +355,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-0183-4939-92D5-8FC616091C40}"/>
@@ -367,16 +370,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="109071360"/>
         <c:axId val="109089536"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="0"/>
                 <c:order val="0"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -419,18 +425,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-0183-4939-92D5-8FC616091C40}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="1"/>
                 <c:order val="1"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -473,18 +482,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-0183-4939-92D5-8FC616091C40}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="2"/>
                 <c:order val="2"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -527,18 +539,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-0183-4939-92D5-8FC616091C40}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="4"/>
                 <c:order val="4"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -581,18 +596,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-0183-4939-92D5-8FC616091C40}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="5"/>
                 <c:order val="5"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -635,18 +653,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-0183-4939-92D5-8FC616091C40}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="6"/>
                 <c:order val="6"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -689,18 +710,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-0183-4939-92D5-8FC616091C40}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="7"/>
                 <c:order val="7"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -743,18 +767,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-0183-4939-92D5-8FC616091C40}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="8"/>
                 <c:order val="8"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -797,18 +824,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-0183-4939-92D5-8FC616091C40}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="9"/>
                 <c:order val="9"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -851,16 +881,17 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-0183-4939-92D5-8FC616091C40}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
+            </c15:filteredLineSeries>
           </c:ext>
         </c:extLst>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="109071360"/>
         <c:scaling>
@@ -868,15 +899,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525"/>
+        </c:spPr>
         <c:crossAx val="109089536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -893,6 +929,9 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
         <c:crossAx val="109071360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -931,14 +970,16 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+          </c:marker>
           <c:cat>
             <c:strLit>
               <c:ptCount val="8"/>
@@ -1013,6 +1054,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-E530-4181-8F29-FF1D9CBC37ED}"/>
@@ -1027,16 +1069,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="109071360"/>
         <c:axId val="109089536"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="0"/>
                 <c:order val="0"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -1079,18 +1124,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-E530-4181-8F29-FF1D9CBC37ED}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="1"/>
                 <c:order val="1"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -1133,18 +1181,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-E530-4181-8F29-FF1D9CBC37ED}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="2"/>
                 <c:order val="2"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -1187,18 +1238,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-E530-4181-8F29-FF1D9CBC37ED}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="3"/>
                 <c:order val="3"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -1241,18 +1295,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-E530-4181-8F29-FF1D9CBC37ED}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="4"/>
                 <c:order val="4"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -1295,18 +1352,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-E530-4181-8F29-FF1D9CBC37ED}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="6"/>
                 <c:order val="6"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -1349,18 +1409,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-E530-4181-8F29-FF1D9CBC37ED}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="7"/>
                 <c:order val="7"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -1403,18 +1466,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-E530-4181-8F29-FF1D9CBC37ED}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="8"/>
                 <c:order val="8"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -1457,18 +1523,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-E530-4181-8F29-FF1D9CBC37ED}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="9"/>
                 <c:order val="9"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -1511,16 +1580,17 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-E530-4181-8F29-FF1D9CBC37ED}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
+            </c15:filteredLineSeries>
           </c:ext>
         </c:extLst>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="109071360"/>
         <c:scaling>
@@ -1528,6 +1598,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1591,14 +1662,16 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+          </c:marker>
           <c:cat>
             <c:strLit>
               <c:ptCount val="8"/>
@@ -1673,6 +1746,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A211-4FAD-8E98-85BA8E8E8BF2}"/>
@@ -1687,16 +1761,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="109169280"/>
         <c:axId val="109179264"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="0"/>
                 <c:order val="0"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -1739,18 +1816,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-A211-4FAD-8E98-85BA8E8E8BF2}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="1"/>
                 <c:order val="1"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -1793,18 +1873,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-A211-4FAD-8E98-85BA8E8E8BF2}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="2"/>
                 <c:order val="2"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -1847,18 +1930,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-A211-4FAD-8E98-85BA8E8E8BF2}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="4"/>
                 <c:order val="4"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -1901,18 +1987,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-A211-4FAD-8E98-85BA8E8E8BF2}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="5"/>
                 <c:order val="5"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -1955,18 +2044,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-A211-4FAD-8E98-85BA8E8E8BF2}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="6"/>
                 <c:order val="6"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -2009,18 +2101,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-A211-4FAD-8E98-85BA8E8E8BF2}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="7"/>
                 <c:order val="7"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -2063,18 +2158,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-A211-4FAD-8E98-85BA8E8E8BF2}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="8"/>
                 <c:order val="8"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -2117,18 +2215,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-A211-4FAD-8E98-85BA8E8E8BF2}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="9"/>
                 <c:order val="9"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -2171,16 +2272,17 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-A211-4FAD-8E98-85BA8E8E8BF2}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
+            </c15:filteredLineSeries>
           </c:ext>
         </c:extLst>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="109169280"/>
         <c:scaling>
@@ -2188,6 +2290,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -2247,14 +2350,16 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+          </c:marker>
           <c:cat>
             <c:strLit>
               <c:ptCount val="8"/>
@@ -2329,6 +2434,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-9E39-45C0-A00A-C75734C6A42A}"/>
@@ -2343,16 +2449,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="109169280"/>
         <c:axId val="109179264"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="0"/>
                 <c:order val="0"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -2395,18 +2504,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-9E39-45C0-A00A-C75734C6A42A}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="1"/>
                 <c:order val="1"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -2449,18 +2561,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-9E39-45C0-A00A-C75734C6A42A}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="2"/>
                 <c:order val="2"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -2503,18 +2618,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-9E39-45C0-A00A-C75734C6A42A}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="3"/>
                 <c:order val="3"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -2557,18 +2675,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-9E39-45C0-A00A-C75734C6A42A}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="4"/>
                 <c:order val="4"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -2611,18 +2732,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-9E39-45C0-A00A-C75734C6A42A}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="6"/>
                 <c:order val="6"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -2665,18 +2789,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-9E39-45C0-A00A-C75734C6A42A}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="7"/>
                 <c:order val="7"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -2719,18 +2846,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-9E39-45C0-A00A-C75734C6A42A}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="8"/>
                 <c:order val="8"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -2773,18 +2903,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-9E39-45C0-A00A-C75734C6A42A}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="9"/>
                 <c:order val="9"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -2827,16 +2960,17 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-9E39-45C0-A00A-C75734C6A42A}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
+            </c15:filteredLineSeries>
           </c:ext>
         </c:extLst>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="109169280"/>
         <c:scaling>
@@ -2844,6 +2978,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -2860,6 +2995,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="255"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2871,7 +3007,7 @@
         <c:crossAx val="109169280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="85"/>
+        <c:majorUnit val="100"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2903,14 +3039,12 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strLit>
               <c:ptCount val="8"/>
@@ -2985,6 +3119,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9E4E-47F9-8BE0-3BFC301395DC}"/>
@@ -2999,11 +3134,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="107569152"/>
         <c:axId val="107570688"/>
-        <c:extLst/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="107569152"/>
         <c:scaling>
@@ -3011,6 +3146,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -3071,14 +3207,12 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strLit>
               <c:ptCount val="8"/>
@@ -3153,6 +3287,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F883-4069-8D75-57A2BBCCB62E}"/>
@@ -3167,11 +3302,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="107660032"/>
         <c:axId val="107661568"/>
-        <c:extLst/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="107660032"/>
         <c:scaling>
@@ -3179,6 +3314,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -3239,14 +3375,12 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strLit>
               <c:ptCount val="8"/>
@@ -3321,6 +3455,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-13BA-4B49-8674-1551CF01805C}"/>
@@ -3335,11 +3470,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="108860160"/>
         <c:axId val="108861696"/>
-        <c:extLst/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="108860160"/>
         <c:scaling>
@@ -3347,6 +3482,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -4199,7 +4335,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-DF70-41BF-AD1E-A21E7C21C07F}"/>
                   </c:ext>
@@ -4216,6 +4352,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5112,7 +5249,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-8B36-473B-9E9D-D7972C8C929B}"/>
                   </c:ext>
@@ -5129,6 +5266,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5215,14 +5353,16 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+          </c:marker>
           <c:cat>
             <c:strLit>
               <c:ptCount val="8"/>
@@ -5297,6 +5437,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C8EF-4509-87BD-BCD8CC648B37}"/>
@@ -5311,16 +5452,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="109071360"/>
         <c:axId val="109089536"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="0"/>
                 <c:order val="0"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -5363,18 +5507,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-C8EF-4509-87BD-BCD8CC648B37}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="2"/>
                 <c:order val="2"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -5417,18 +5564,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-C8EF-4509-87BD-BCD8CC648B37}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="3"/>
                 <c:order val="3"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -5471,18 +5621,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-C8EF-4509-87BD-BCD8CC648B37}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="4"/>
                 <c:order val="4"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -5525,18 +5678,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-C8EF-4509-87BD-BCD8CC648B37}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="5"/>
                 <c:order val="5"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -5579,18 +5735,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-C8EF-4509-87BD-BCD8CC648B37}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="6"/>
                 <c:order val="6"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -5633,18 +5792,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-C8EF-4509-87BD-BCD8CC648B37}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="7"/>
                 <c:order val="7"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -5687,18 +5849,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-C8EF-4509-87BD-BCD8CC648B37}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="8"/>
                 <c:order val="8"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -5741,18 +5906,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-C8EF-4509-87BD-BCD8CC648B37}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="9"/>
                 <c:order val="9"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -5795,16 +5963,17 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-C8EF-4509-87BD-BCD8CC648B37}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
+            </c15:filteredLineSeries>
           </c:ext>
         </c:extLst>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="109071360"/>
         <c:scaling>
@@ -5812,6 +5981,8 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5874,14 +6045,16 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+          </c:marker>
           <c:cat>
             <c:strLit>
               <c:ptCount val="8"/>
@@ -5956,6 +6129,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
@@ -5970,16 +6144,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="109169280"/>
         <c:axId val="109179264"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="0"/>
                 <c:order val="0"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -6022,18 +6199,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="2"/>
                 <c:order val="2"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -6076,18 +6256,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="3"/>
                 <c:order val="3"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -6130,18 +6313,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="4"/>
                 <c:order val="4"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -6184,18 +6370,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="5"/>
                 <c:order val="5"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -6238,18 +6427,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="6"/>
                 <c:order val="6"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -6292,18 +6484,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="7"/>
                 <c:order val="7"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -6346,18 +6541,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="8"/>
                 <c:order val="8"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -6400,18 +6598,21 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="9"/>
                 <c:order val="9"/>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -6454,16 +6655,17 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-88E5-47A2-8EE1-0A5F3EB87A3D}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
+            </c15:filteredLineSeries>
           </c:ext>
         </c:extLst>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="109169280"/>
         <c:scaling>
@@ -6471,6 +6673,8 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7884,8 +8088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:U157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U125" sqref="U125"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T132" sqref="T132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>

--- a/exp_c/slide/data.xlsx
+++ b/exp_c/slide/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DA249E-1317-414D-951A-ABEA2CED879D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8347F850-8489-4083-AC9A-42052883BDF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1635,7 +1635,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:noFill/>
+    <a:solidFill>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:solidFill>
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
@@ -1720,13 +1722,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1735,13 +1737,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1847,28 +1849,28 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="8"/>
                       <c:pt idx="0">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1904,28 +1906,28 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="8"/>
                       <c:pt idx="0">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1961,10 +1963,10 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="8"/>
                       <c:pt idx="0">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>0</c:v>
@@ -1979,10 +1981,10 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2018,10 +2020,10 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="8"/>
                       <c:pt idx="0">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>0</c:v>
@@ -2036,10 +2038,10 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2075,13 +2077,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="8"/>
                       <c:pt idx="0">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>0</c:v>
@@ -2090,13 +2092,13 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2132,28 +2134,28 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="8"/>
                       <c:pt idx="0">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2189,28 +2191,28 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="8"/>
                       <c:pt idx="0">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2408,10 +2410,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2426,10 +2428,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2535,28 +2537,28 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="8"/>
                       <c:pt idx="0">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2592,28 +2594,28 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="8"/>
                       <c:pt idx="0">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2649,13 +2651,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="8"/>
                       <c:pt idx="0">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>0</c:v>
@@ -2664,13 +2666,13 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2706,10 +2708,10 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="8"/>
                       <c:pt idx="0">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>0</c:v>
@@ -2724,10 +2726,10 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2763,13 +2765,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="8"/>
                       <c:pt idx="0">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>0</c:v>
@@ -2778,13 +2780,13 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2820,28 +2822,28 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="8"/>
                       <c:pt idx="0">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2877,28 +2879,28 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="8"/>
                       <c:pt idx="0">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3007,7 +3009,7 @@
         <c:crossAx val="109169280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="100"/>
+        <c:majorUnit val="85"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -4531,28 +4533,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4614,28 +4616,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4697,13 +4699,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -4712,13 +4714,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4780,10 +4782,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4798,10 +4800,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4863,10 +4865,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4881,10 +4883,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4946,13 +4948,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -4961,13 +4963,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5029,28 +5031,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5112,28 +5114,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6103,28 +6105,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6230,28 +6232,28 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="8"/>
                       <c:pt idx="0">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6287,13 +6289,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="8"/>
                       <c:pt idx="0">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>0</c:v>
@@ -6302,13 +6304,13 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6344,10 +6346,10 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="8"/>
                       <c:pt idx="0">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>0</c:v>
@@ -6362,10 +6364,10 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6401,10 +6403,10 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="8"/>
                       <c:pt idx="0">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>0</c:v>
@@ -6419,10 +6421,10 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6458,13 +6460,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="8"/>
                       <c:pt idx="0">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>0</c:v>
@@ -6473,13 +6475,13 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6515,28 +6517,28 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="8"/>
                       <c:pt idx="0">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6572,28 +6574,28 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="8"/>
                       <c:pt idx="0">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>100</c:v>
+                        <c:v>85</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6737,306 +6739,81 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$148:$K$148</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BF4A-46F6-88E9-381F0ED8B973}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$149:$K$149</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BF4A-46F6-88E9-381F0ED8B973}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$150:$K$150</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BF4A-46F6-88E9-381F0ED8B973}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$151:$K$151</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BF4A-46F6-88E9-381F0ED8B973}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$152:$K$152</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-BF4A-46F6-88E9-381F0ED8B973}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$153:$K$153</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$153:$K$153</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$C$153:$J$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>200</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7045,214 +6822,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-BF4A-46F6-88E9-381F0ED8B973}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$154:$K$154</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-BF4A-46F6-88E9-381F0ED8B973}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$155:$K$155</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-BF4A-46F6-88E9-381F0ED8B973}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$156:$K$156</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-BF4A-46F6-88E9-381F0ED8B973}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$157:$K$157</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-BF4A-46F6-88E9-381F0ED8B973}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7267,6 +6836,523 @@
         <c:smooth val="0"/>
         <c:axId val="109191168"/>
         <c:axId val="109313024"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$148:$K$148</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$148:$J$148</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>85</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-BF4A-46F6-88E9-381F0ED8B973}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$149:$K$149</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$149:$J$149</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>85</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-BF4A-46F6-88E9-381F0ED8B973}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$150:$K$150</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$150:$J$150</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>85</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-BF4A-46F6-88E9-381F0ED8B973}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$151:$K$151</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$151:$J$151</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>85</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-BF4A-46F6-88E9-381F0ED8B973}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$152:$K$152</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$152:$J$152</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>85</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-BF4A-46F6-88E9-381F0ED8B973}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$154:$K$154</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$154:$J$154</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>85</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-BF4A-46F6-88E9-381F0ED8B973}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$155:$K$155</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$155:$J$155</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>85</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-BF4A-46F6-88E9-381F0ED8B973}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$156:$K$156</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$156:$J$156</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>85</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-BF4A-46F6-88E9-381F0ED8B973}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$157:$K$157</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$157:$J$157</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>85</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-BF4A-46F6-88E9-381F0ED8B973}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="109191168"/>
@@ -7275,6 +7361,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7289,6 +7376,7 @@
         <c:axId val="109313024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="255"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7300,6 +7388,7 @@
         <c:crossAx val="109191168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="85"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -7611,15 +7700,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>447676</xdr:colOff>
       <xdr:row>146</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>95247</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>95247</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8088,8 +8177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:U157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T132" sqref="T132"/>
+    <sheetView tabSelected="1" topLeftCell="B112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I136" sqref="I136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -9431,28 +9520,28 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N62">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="O62">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="P62">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="Q62">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="R62">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="S62">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T62">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="U62">
         <v>0</v>
@@ -9493,28 +9582,28 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N63">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="O63">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="P63">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="Q63">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="R63">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="S63">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T63">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="U63">
         <v>0</v>
@@ -9555,13 +9644,13 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N64">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="O64">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="P64">
         <v>0</v>
@@ -9570,13 +9659,13 @@
         <v>0</v>
       </c>
       <c r="R64">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="S64">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T64">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="U64">
         <v>0</v>
@@ -9617,10 +9706,10 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N65">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="O65">
         <v>0</v>
@@ -9635,10 +9724,10 @@
         <v>0</v>
       </c>
       <c r="S65">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T65">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="U65">
         <v>0</v>
@@ -9679,10 +9768,10 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N66">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="O66">
         <v>0</v>
@@ -9697,10 +9786,10 @@
         <v>0</v>
       </c>
       <c r="S66">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T66">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="U66">
         <v>0</v>
@@ -9741,13 +9830,13 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N67">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="O67">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -9756,13 +9845,13 @@
         <v>0</v>
       </c>
       <c r="R67">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="S67">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T67">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="U67">
         <v>0</v>
@@ -9803,28 +9892,28 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N68">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="O68">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="P68">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="Q68">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="R68">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="S68">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T68">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="U68">
         <v>0</v>
@@ -9865,28 +9954,28 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N69">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="O69">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="P69">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="Q69">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="R69">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="S69">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T69">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="U69">
         <v>0</v>
@@ -9956,322 +10045,322 @@
     </row>
     <row r="148" spans="2:11">
       <c r="B148">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C148">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D148">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E148">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F148">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="G148">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H148">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="I148">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="J148">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K148">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="149" spans="2:11">
       <c r="B149">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C149">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D149">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E149">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F149">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="G149">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H149">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="I149">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="J149">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K149">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="150" spans="2:11">
       <c r="B150">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C150">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D150">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E150">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F150">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="G150">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H150">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="I150">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="J150">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K150">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="151" spans="2:11">
       <c r="B151">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C151">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D151">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E151">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F151">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="G151">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H151">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="I151">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="J151">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K151">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="152" spans="2:11">
       <c r="B152">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C152">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D152">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E152">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F152">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G152">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="H152">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="I152">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="J152">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K152">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="153" spans="2:11">
       <c r="B153">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C153">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D153">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E153">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F153">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G153">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="H153">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="I153">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="J153">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K153">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="154" spans="2:11">
       <c r="B154">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C154">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D154">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E154">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F154">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="G154">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H154">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="I154">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="J154">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K154">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="155" spans="2:11">
       <c r="B155">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C155">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D155">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E155">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F155">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="G155">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H155">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="I155">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="J155">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K155">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="156" spans="2:11">
       <c r="B156">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C156">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D156">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E156">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F156">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="G156">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H156">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="I156">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="J156">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K156">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="157" spans="2:11">
       <c r="B157">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C157">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D157">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E157">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F157">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="G157">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H157">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="I157">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="J157">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K157">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/exp_c/slide/data.xlsx
+++ b/exp_c/slide/data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8347F850-8489-4083-AC9A-42052883BDF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47D6D02-68FC-4F61-875A-7724B40436C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="グラフ" sheetId="1" r:id="rId1"/>
+    <sheet name="平滑化" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
@@ -22,6 +22,35 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+  <si>
+    <t>平均</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加重平均</t>
+    <rPh sb="0" eb="2">
+      <t>カジュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>元</t>
+    <rPh sb="0" eb="1">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -148,11 +177,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$6:$J$6</c15:sqref>
+                    <c15:sqref>グラフ!$A$6:$J$6</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$6:$I$6</c:f>
+              <c:f>グラフ!$B$6:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -320,11 +349,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$64:$J$64</c15:sqref>
+                    <c15:sqref>グラフ!$A$64:$J$64</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$64:$I$64</c:f>
+              <c:f>グラフ!$B$64:$I$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -388,10 +417,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$61:$J$61</c15:sqref>
+                          <c15:sqref>グラフ!$A$61:$J$61</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$61:$I$61</c15:sqref>
+                          <c15:sqref>グラフ!$B$61:$I$61</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -445,10 +474,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$62:$J$62</c15:sqref>
+                          <c15:sqref>グラフ!$A$62:$J$62</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$62:$I$62</c15:sqref>
+                          <c15:sqref>グラフ!$B$62:$I$62</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -502,10 +531,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$63:$J$63</c15:sqref>
+                          <c15:sqref>グラフ!$A$63:$J$63</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$63:$I$63</c15:sqref>
+                          <c15:sqref>グラフ!$B$63:$I$63</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -559,10 +588,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$65:$J$65</c15:sqref>
+                          <c15:sqref>グラフ!$A$65:$J$65</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$65:$I$65</c15:sqref>
+                          <c15:sqref>グラフ!$B$65:$I$65</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -616,10 +645,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$66:$J$66</c15:sqref>
+                          <c15:sqref>グラフ!$A$66:$J$66</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$66:$I$66</c15:sqref>
+                          <c15:sqref>グラフ!$B$66:$I$66</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -673,10 +702,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$67:$J$67</c15:sqref>
+                          <c15:sqref>グラフ!$A$67:$J$67</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$67:$I$67</c15:sqref>
+                          <c15:sqref>グラフ!$B$67:$I$67</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -730,10 +759,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$68:$J$68</c15:sqref>
+                          <c15:sqref>グラフ!$A$68:$J$68</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$68:$I$68</c15:sqref>
+                          <c15:sqref>グラフ!$B$68:$I$68</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -787,10 +816,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$69:$J$69</c15:sqref>
+                          <c15:sqref>グラフ!$A$69:$J$69</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$69:$I$69</c15:sqref>
+                          <c15:sqref>グラフ!$B$69:$I$69</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -844,10 +873,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$70:$J$70</c15:sqref>
+                          <c15:sqref>グラフ!$A$70:$J$70</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$70:$I$70</c15:sqref>
+                          <c15:sqref>グラフ!$B$70:$I$70</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1019,11 +1048,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$66:$J$66</c15:sqref>
+                    <c15:sqref>グラフ!$A$66:$J$66</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$66:$I$66</c:f>
+              <c:f>グラフ!$B$66:$I$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1087,10 +1116,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$61:$J$61</c15:sqref>
+                          <c15:sqref>グラフ!$A$61:$J$61</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$61:$I$61</c15:sqref>
+                          <c15:sqref>グラフ!$B$61:$I$61</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1144,10 +1173,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$62:$J$62</c15:sqref>
+                          <c15:sqref>グラフ!$A$62:$J$62</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$62:$I$62</c15:sqref>
+                          <c15:sqref>グラフ!$B$62:$I$62</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1201,10 +1230,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$63:$J$63</c15:sqref>
+                          <c15:sqref>グラフ!$A$63:$J$63</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$63:$I$63</c15:sqref>
+                          <c15:sqref>グラフ!$B$63:$I$63</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1258,10 +1287,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$64:$J$64</c15:sqref>
+                          <c15:sqref>グラフ!$A$64:$J$64</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$64:$I$64</c15:sqref>
+                          <c15:sqref>グラフ!$B$64:$I$64</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1315,10 +1344,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$65:$J$65</c15:sqref>
+                          <c15:sqref>グラフ!$A$65:$J$65</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$65:$I$65</c15:sqref>
+                          <c15:sqref>グラフ!$B$65:$I$65</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1372,10 +1401,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$67:$J$67</c15:sqref>
+                          <c15:sqref>グラフ!$A$67:$J$67</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$67:$I$67</c15:sqref>
+                          <c15:sqref>グラフ!$B$67:$I$67</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1429,10 +1458,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$68:$J$68</c15:sqref>
+                          <c15:sqref>グラフ!$A$68:$J$68</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$68:$I$68</c15:sqref>
+                          <c15:sqref>グラフ!$B$68:$I$68</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1486,10 +1515,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$69:$J$69</c15:sqref>
+                          <c15:sqref>グラフ!$A$69:$J$69</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$69:$I$69</c15:sqref>
+                          <c15:sqref>グラフ!$B$69:$I$69</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1543,10 +1572,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$70:$J$70</c15:sqref>
+                          <c15:sqref>グラフ!$A$70:$J$70</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$70:$I$70</c15:sqref>
+                          <c15:sqref>グラフ!$B$70:$I$70</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1713,11 +1742,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$L$64:$U$64</c15:sqref>
+                    <c15:sqref>グラフ!$L$64:$U$64</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$M$64:$T$64</c:f>
+              <c:f>グラフ!$M$64:$T$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1781,10 +1810,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$61:$U$61</c15:sqref>
+                          <c15:sqref>グラフ!$L$61:$U$61</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$61:$T$61</c15:sqref>
+                          <c15:sqref>グラフ!$M$61:$T$61</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1838,10 +1867,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$62:$U$62</c15:sqref>
+                          <c15:sqref>グラフ!$L$62:$U$62</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$62:$T$62</c15:sqref>
+                          <c15:sqref>グラフ!$M$62:$T$62</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1895,10 +1924,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$63:$U$63</c15:sqref>
+                          <c15:sqref>グラフ!$L$63:$U$63</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$63:$T$63</c15:sqref>
+                          <c15:sqref>グラフ!$M$63:$T$63</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1952,10 +1981,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$65:$U$65</c15:sqref>
+                          <c15:sqref>グラフ!$L$65:$U$65</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$65:$T$65</c15:sqref>
+                          <c15:sqref>グラフ!$M$65:$T$65</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2009,10 +2038,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$66:$U$66</c15:sqref>
+                          <c15:sqref>グラフ!$L$66:$U$66</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$66:$T$66</c15:sqref>
+                          <c15:sqref>グラフ!$M$66:$T$66</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2066,10 +2095,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$67:$U$67</c15:sqref>
+                          <c15:sqref>グラフ!$L$67:$U$67</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$67:$T$67</c15:sqref>
+                          <c15:sqref>グラフ!$M$67:$T$67</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2123,10 +2152,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$68:$U$68</c15:sqref>
+                          <c15:sqref>グラフ!$L$68:$U$68</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$68:$T$68</c15:sqref>
+                          <c15:sqref>グラフ!$M$68:$T$68</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2180,10 +2209,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$69:$U$69</c15:sqref>
+                          <c15:sqref>グラフ!$L$69:$U$69</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$69:$T$69</c15:sqref>
+                          <c15:sqref>グラフ!$M$69:$T$69</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2237,10 +2266,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$70:$U$70</c15:sqref>
+                          <c15:sqref>グラフ!$L$70:$U$70</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$70:$T$70</c15:sqref>
+                          <c15:sqref>グラフ!$M$70:$T$70</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2401,11 +2430,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$L$66:$U$66</c15:sqref>
+                    <c15:sqref>グラフ!$L$66:$U$66</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$M$66:$T$66</c:f>
+              <c:f>グラフ!$M$66:$T$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2469,10 +2498,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$61:$U$61</c15:sqref>
+                          <c15:sqref>グラフ!$L$61:$U$61</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$61:$T$61</c15:sqref>
+                          <c15:sqref>グラフ!$M$61:$T$61</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2526,10 +2555,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$62:$U$62</c15:sqref>
+                          <c15:sqref>グラフ!$L$62:$U$62</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$62:$T$62</c15:sqref>
+                          <c15:sqref>グラフ!$M$62:$T$62</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2583,10 +2612,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$63:$U$63</c15:sqref>
+                          <c15:sqref>グラフ!$L$63:$U$63</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$63:$T$63</c15:sqref>
+                          <c15:sqref>グラフ!$M$63:$T$63</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2640,10 +2669,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$64:$U$64</c15:sqref>
+                          <c15:sqref>グラフ!$L$64:$U$64</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$64:$T$64</c15:sqref>
+                          <c15:sqref>グラフ!$M$64:$T$64</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2697,10 +2726,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$65:$U$65</c15:sqref>
+                          <c15:sqref>グラフ!$L$65:$U$65</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$65:$T$65</c15:sqref>
+                          <c15:sqref>グラフ!$M$65:$T$65</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2754,10 +2783,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$67:$U$67</c15:sqref>
+                          <c15:sqref>グラフ!$L$67:$U$67</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$67:$T$67</c15:sqref>
+                          <c15:sqref>グラフ!$M$67:$T$67</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2811,10 +2840,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$68:$U$68</c15:sqref>
+                          <c15:sqref>グラフ!$L$68:$U$68</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$68:$T$68</c15:sqref>
+                          <c15:sqref>グラフ!$M$68:$T$68</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2868,10 +2897,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$69:$U$69</c15:sqref>
+                          <c15:sqref>グラフ!$L$69:$U$69</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$69:$T$69</c15:sqref>
+                          <c15:sqref>グラフ!$M$69:$T$69</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2925,10 +2954,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$70:$U$70</c15:sqref>
+                          <c15:sqref>グラフ!$L$70:$U$70</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$70:$T$70</c15:sqref>
+                          <c15:sqref>グラフ!$M$70:$T$70</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3024,6 +3053,1109 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>平滑化!$C$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C36-4992-845A-F4A30ACFD250}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>平滑化!$C$18:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6C36-4992-845A-F4A30ACFD250}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>平滑化!$C$29:$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6C36-4992-845A-F4A30ACFD250}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1171282928"/>
+        <c:axId val="1171493104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1171282928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1171493104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1171493104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1171282928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>平滑化!$B$6:$K$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>平滑化!$C$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0BF0-41E2-A0FB-25D9BA373F3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>平滑化!$B$29:$K$29</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>平滑化!$C$29:$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0BF0-41E2-A0FB-25D9BA373F3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1161841312"/>
+        <c:axId val="1171490608"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1161841312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1171490608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1171490608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="255"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1161841312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="51"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet3!$B$6:$K$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet3!$C$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F84-4D83-8461-D4C9F6AA2832}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet3!$B$18:$K$18</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet3!$C$18:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1F84-4D83-8461-D4C9F6AA2832}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="953140592"/>
+        <c:axId val="1081408656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="953140592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1081408656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1081408656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="953140592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -3086,11 +4218,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$L$6:$U$6</c15:sqref>
+                    <c15:sqref>グラフ!$L$6:$U$6</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$M$6:$T$6</c:f>
+              <c:f>グラフ!$M$6:$T$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3254,11 +4386,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$37:$J$37</c15:sqref>
+                    <c15:sqref>グラフ!$A$37:$J$37</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$37:$I$37</c:f>
+              <c:f>グラフ!$B$37:$I$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3422,11 +4554,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$L$37:$U$37</c15:sqref>
+                    <c15:sqref>グラフ!$L$37:$U$37</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$M$37:$T$37</c:f>
+              <c:f>グラフ!$M$37:$T$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3610,11 +4742,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$62:$J$62</c15:sqref>
+                    <c15:sqref>グラフ!$A$62:$J$62</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$62:$I$62</c:f>
+              <c:f>グラフ!$B$62:$I$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3693,11 +4825,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$63:$J$63</c15:sqref>
+                    <c15:sqref>グラフ!$A$63:$J$63</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$63:$I$63</c:f>
+              <c:f>グラフ!$B$63:$I$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3776,11 +4908,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$64:$J$64</c15:sqref>
+                    <c15:sqref>グラフ!$A$64:$J$64</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$64:$I$64</c:f>
+              <c:f>グラフ!$B$64:$I$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3859,11 +4991,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$65:$J$65</c15:sqref>
+                    <c15:sqref>グラフ!$A$65:$J$65</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$65:$I$65</c:f>
+              <c:f>グラフ!$B$65:$I$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3942,11 +5074,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$66:$J$66</c15:sqref>
+                    <c15:sqref>グラフ!$A$66:$J$66</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$66:$I$66</c:f>
+              <c:f>グラフ!$B$66:$I$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4025,11 +5157,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$67:$J$67</c15:sqref>
+                    <c15:sqref>グラフ!$A$67:$J$67</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$67:$I$67</c:f>
+              <c:f>グラフ!$B$67:$I$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4108,11 +5240,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$68:$J$68</c15:sqref>
+                    <c15:sqref>グラフ!$A$68:$J$68</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$68:$I$68</c:f>
+              <c:f>グラフ!$B$68:$I$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4191,11 +5323,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$69:$J$69</c15:sqref>
+                    <c15:sqref>グラフ!$A$69:$J$69</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$69:$I$69</c:f>
+              <c:f>グラフ!$B$69:$I$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4247,10 +5379,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$61:$J$61</c15:sqref>
+                          <c15:sqref>グラフ!$A$61:$J$61</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$61:$I$61</c15:sqref>
+                          <c15:sqref>グラフ!$B$61:$I$61</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4300,10 +5432,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$70:$J$70</c15:sqref>
+                          <c15:sqref>グラフ!$A$70:$J$70</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$70:$I$70</c15:sqref>
+                          <c15:sqref>グラフ!$B$70:$I$70</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4524,11 +5656,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$L$62:$U$62</c15:sqref>
+                    <c15:sqref>グラフ!$L$62:$U$62</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$M$62:$T$62</c:f>
+              <c:f>グラフ!$M$62:$T$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4607,11 +5739,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$L$63:$U$63</c15:sqref>
+                    <c15:sqref>グラフ!$L$63:$U$63</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$M$63:$T$63</c:f>
+              <c:f>グラフ!$M$63:$T$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4690,11 +5822,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$L$64:$U$64</c15:sqref>
+                    <c15:sqref>グラフ!$L$64:$U$64</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$M$64:$T$64</c:f>
+              <c:f>グラフ!$M$64:$T$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4773,11 +5905,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$L$65:$U$65</c15:sqref>
+                    <c15:sqref>グラフ!$L$65:$U$65</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$M$65:$T$65</c:f>
+              <c:f>グラフ!$M$65:$T$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4856,11 +5988,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$L$66:$U$66</c15:sqref>
+                    <c15:sqref>グラフ!$L$66:$U$66</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$M$66:$T$66</c:f>
+              <c:f>グラフ!$M$66:$T$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4939,11 +6071,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$L$67:$U$67</c15:sqref>
+                    <c15:sqref>グラフ!$L$67:$U$67</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$M$67:$T$67</c:f>
+              <c:f>グラフ!$M$67:$T$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5022,11 +6154,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$L$68:$U$68</c15:sqref>
+                    <c15:sqref>グラフ!$L$68:$U$68</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$M$68:$T$68</c:f>
+              <c:f>グラフ!$M$68:$T$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5105,11 +6237,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$L$69:$U$69</c15:sqref>
+                    <c15:sqref>グラフ!$L$69:$U$69</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$M$69:$T$69</c:f>
+              <c:f>グラフ!$M$69:$T$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5161,10 +6293,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$61:$U$61</c15:sqref>
+                          <c15:sqref>グラフ!$L$61:$U$61</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$61:$T$61</c15:sqref>
+                          <c15:sqref>グラフ!$M$61:$T$61</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5214,10 +6346,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$70:$U$70</c15:sqref>
+                          <c15:sqref>グラフ!$L$70:$U$70</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$70:$T$70</c15:sqref>
+                          <c15:sqref>グラフ!$M$70:$T$70</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5404,11 +6536,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$62:$J$62</c15:sqref>
+                    <c15:sqref>グラフ!$A$62:$J$62</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$62:$I$62</c:f>
+              <c:f>グラフ!$B$62:$I$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5472,10 +6604,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$61:$J$61</c15:sqref>
+                          <c15:sqref>グラフ!$A$61:$J$61</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$61:$I$61</c15:sqref>
+                          <c15:sqref>グラフ!$B$61:$I$61</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5529,10 +6661,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$63:$J$63</c15:sqref>
+                          <c15:sqref>グラフ!$A$63:$J$63</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$63:$I$63</c15:sqref>
+                          <c15:sqref>グラフ!$B$63:$I$63</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5586,10 +6718,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$64:$J$64</c15:sqref>
+                          <c15:sqref>グラフ!$A$64:$J$64</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$64:$I$64</c15:sqref>
+                          <c15:sqref>グラフ!$B$64:$I$64</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5643,10 +6775,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$65:$J$65</c15:sqref>
+                          <c15:sqref>グラフ!$A$65:$J$65</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$65:$I$65</c15:sqref>
+                          <c15:sqref>グラフ!$B$65:$I$65</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5700,10 +6832,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$66:$J$66</c15:sqref>
+                          <c15:sqref>グラフ!$A$66:$J$66</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$66:$I$66</c15:sqref>
+                          <c15:sqref>グラフ!$B$66:$I$66</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5757,10 +6889,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$67:$J$67</c15:sqref>
+                          <c15:sqref>グラフ!$A$67:$J$67</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$67:$I$67</c15:sqref>
+                          <c15:sqref>グラフ!$B$67:$I$67</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5814,10 +6946,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$68:$J$68</c15:sqref>
+                          <c15:sqref>グラフ!$A$68:$J$68</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$68:$I$68</c15:sqref>
+                          <c15:sqref>グラフ!$B$68:$I$68</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5871,10 +7003,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$69:$J$69</c15:sqref>
+                          <c15:sqref>グラフ!$A$69:$J$69</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$69:$I$69</c15:sqref>
+                          <c15:sqref>グラフ!$B$69:$I$69</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5928,10 +7060,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$70:$J$70</c15:sqref>
+                          <c15:sqref>グラフ!$A$70:$J$70</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$70:$I$70</c15:sqref>
+                          <c15:sqref>グラフ!$B$70:$I$70</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6096,11 +7228,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$L$62:$U$62</c15:sqref>
+                    <c15:sqref>グラフ!$L$62:$U$62</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$M$62:$T$62</c:f>
+              <c:f>グラフ!$M$62:$T$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6164,10 +7296,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$61:$U$61</c15:sqref>
+                          <c15:sqref>グラフ!$L$61:$U$61</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$61:$T$61</c15:sqref>
+                          <c15:sqref>グラフ!$M$61:$T$61</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6221,10 +7353,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$63:$U$63</c15:sqref>
+                          <c15:sqref>グラフ!$L$63:$U$63</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$63:$T$63</c15:sqref>
+                          <c15:sqref>グラフ!$M$63:$T$63</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6278,10 +7410,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$64:$U$64</c15:sqref>
+                          <c15:sqref>グラフ!$L$64:$U$64</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$64:$T$64</c15:sqref>
+                          <c15:sqref>グラフ!$M$64:$T$64</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6335,10 +7467,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$65:$U$65</c15:sqref>
+                          <c15:sqref>グラフ!$L$65:$U$65</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$65:$T$65</c15:sqref>
+                          <c15:sqref>グラフ!$M$65:$T$65</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6392,10 +7524,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$66:$U$66</c15:sqref>
+                          <c15:sqref>グラフ!$L$66:$U$66</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$66:$T$66</c15:sqref>
+                          <c15:sqref>グラフ!$M$66:$T$66</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6449,10 +7581,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$67:$U$67</c15:sqref>
+                          <c15:sqref>グラフ!$L$67:$U$67</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$67:$T$67</c15:sqref>
+                          <c15:sqref>グラフ!$M$67:$T$67</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6506,10 +7638,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$68:$U$68</c15:sqref>
+                          <c15:sqref>グラフ!$L$68:$U$68</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$68:$T$68</c15:sqref>
+                          <c15:sqref>グラフ!$M$68:$T$68</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6563,10 +7695,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$69:$U$69</c15:sqref>
+                          <c15:sqref>グラフ!$L$69:$U$69</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$69:$T$69</c15:sqref>
+                          <c15:sqref>グラフ!$M$69:$T$69</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6620,10 +7752,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$L$70:$U$70</c15:sqref>
+                          <c15:sqref>グラフ!$L$70:$U$70</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$70:$T$70</c15:sqref>
+                          <c15:sqref>グラフ!$M$70:$T$70</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6783,11 +7915,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$153:$K$153</c15:sqref>
+                    <c15:sqref>グラフ!$B$153:$K$153</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$C$153:$J$153</c:f>
+              <c:f>グラフ!$C$153:$J$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6850,10 +7982,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$B$148:$K$148</c15:sqref>
+                          <c15:sqref>グラフ!$B$148:$K$148</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$148:$J$148</c15:sqref>
+                          <c15:sqref>グラフ!$C$148:$J$148</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6907,10 +8039,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$B$149:$K$149</c15:sqref>
+                          <c15:sqref>グラフ!$B$149:$K$149</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$149:$J$149</c15:sqref>
+                          <c15:sqref>グラフ!$C$149:$J$149</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6945,7 +8077,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-BF4A-46F6-88E9-381F0ED8B973}"/>
                   </c:ext>
@@ -6964,10 +8096,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$B$150:$K$150</c15:sqref>
+                          <c15:sqref>グラフ!$B$150:$K$150</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$150:$J$150</c15:sqref>
+                          <c15:sqref>グラフ!$C$150:$J$150</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7002,7 +8134,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-BF4A-46F6-88E9-381F0ED8B973}"/>
                   </c:ext>
@@ -7021,10 +8153,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$B$151:$K$151</c15:sqref>
+                          <c15:sqref>グラフ!$B$151:$K$151</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$151:$J$151</c15:sqref>
+                          <c15:sqref>グラフ!$C$151:$J$151</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7059,7 +8191,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-BF4A-46F6-88E9-381F0ED8B973}"/>
                   </c:ext>
@@ -7078,10 +8210,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$B$152:$K$152</c15:sqref>
+                          <c15:sqref>グラフ!$B$152:$K$152</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$152:$J$152</c15:sqref>
+                          <c15:sqref>グラフ!$C$152:$J$152</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7116,7 +8248,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-BF4A-46F6-88E9-381F0ED8B973}"/>
                   </c:ext>
@@ -7135,10 +8267,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$B$154:$K$154</c15:sqref>
+                          <c15:sqref>グラフ!$B$154:$K$154</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$154:$J$154</c15:sqref>
+                          <c15:sqref>グラフ!$C$154:$J$154</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7173,7 +8305,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-BF4A-46F6-88E9-381F0ED8B973}"/>
                   </c:ext>
@@ -7192,10 +8324,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$B$155:$K$155</c15:sqref>
+                          <c15:sqref>グラフ!$B$155:$K$155</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$155:$J$155</c15:sqref>
+                          <c15:sqref>グラフ!$C$155:$J$155</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7230,7 +8362,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-BF4A-46F6-88E9-381F0ED8B973}"/>
                   </c:ext>
@@ -7249,10 +8381,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$B$156:$K$156</c15:sqref>
+                          <c15:sqref>グラフ!$B$156:$K$156</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$156:$J$156</c15:sqref>
+                          <c15:sqref>グラフ!$C$156:$J$156</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7287,7 +8419,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-BF4A-46F6-88E9-381F0ED8B973}"/>
                   </c:ext>
@@ -7306,10 +8438,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$B$157:$K$157</c15:sqref>
+                          <c15:sqref>グラフ!$B$157:$K$157</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$157:$J$157</c15:sqref>
+                          <c15:sqref>グラフ!$C$157:$J$157</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7344,7 +8476,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-BF4A-46F6-88E9-381F0ED8B973}"/>
                   </c:ext>
@@ -7362,6 +8494,7 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7401,6 +8534,1674 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7888,6 +10689,124 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="グラフ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D48D4F00-D27E-4335-AD59-9D0138874C63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="グラフ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39B48559-6DD9-4FD2-95AE-50A6107956F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD98C31C-AD6A-4B1B-AB98-086F005618E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ホワイト">
   <a:themeElements>
@@ -8177,7 +11096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:U157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B112" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I136" sqref="I136"/>
     </sheetView>
   </sheetViews>
@@ -10373,28 +13292,1656 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:K34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>98</v>
+      </c>
+      <c r="D3">
+        <v>75</v>
+      </c>
+      <c r="E3">
+        <v>60</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>44</v>
+      </c>
+      <c r="H3">
+        <v>40</v>
+      </c>
+      <c r="I3">
+        <v>39</v>
+      </c>
+      <c r="J3">
+        <v>38</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>145</v>
+      </c>
+      <c r="D4">
+        <v>117</v>
+      </c>
+      <c r="E4">
+        <v>89</v>
+      </c>
+      <c r="F4">
+        <v>66</v>
+      </c>
+      <c r="G4">
+        <v>51</v>
+      </c>
+      <c r="H4">
+        <v>42</v>
+      </c>
+      <c r="I4">
+        <v>40</v>
+      </c>
+      <c r="J4">
+        <v>39</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>188</v>
+      </c>
+      <c r="D5">
+        <v>165</v>
+      </c>
+      <c r="E5">
+        <v>135</v>
+      </c>
+      <c r="F5">
+        <v>103</v>
+      </c>
+      <c r="G5">
+        <v>76</v>
+      </c>
+      <c r="H5">
+        <v>56</v>
+      </c>
+      <c r="I5">
+        <v>46</v>
+      </c>
+      <c r="J5">
+        <v>40</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>211</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+      <c r="E6">
+        <v>180</v>
+      </c>
+      <c r="F6">
+        <v>151</v>
+      </c>
+      <c r="G6">
+        <v>119</v>
+      </c>
+      <c r="H6">
+        <v>87</v>
+      </c>
+      <c r="I6">
+        <v>63</v>
+      </c>
+      <c r="J6">
+        <v>47</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>217</v>
+      </c>
+      <c r="D7">
+        <v>215</v>
+      </c>
+      <c r="E7">
+        <v>207</v>
+      </c>
+      <c r="F7">
+        <v>191</v>
+      </c>
+      <c r="G7">
+        <v>166</v>
+      </c>
+      <c r="H7">
+        <v>132</v>
+      </c>
+      <c r="I7">
+        <v>98</v>
+      </c>
+      <c r="J7">
+        <v>69</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>217</v>
+      </c>
+      <c r="D8">
+        <v>217</v>
+      </c>
+      <c r="E8">
+        <v>216</v>
+      </c>
+      <c r="F8">
+        <v>211</v>
+      </c>
+      <c r="G8">
+        <v>200</v>
+      </c>
+      <c r="H8">
+        <v>176</v>
+      </c>
+      <c r="I8">
+        <v>145</v>
+      </c>
+      <c r="J8">
+        <v>108</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>216</v>
+      </c>
+      <c r="D9">
+        <v>217</v>
+      </c>
+      <c r="E9">
+        <v>218</v>
+      </c>
+      <c r="F9">
+        <v>218</v>
+      </c>
+      <c r="G9">
+        <v>215</v>
+      </c>
+      <c r="H9">
+        <v>205</v>
+      </c>
+      <c r="I9">
+        <v>186</v>
+      </c>
+      <c r="J9">
+        <v>155</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>215</v>
+      </c>
+      <c r="D10">
+        <v>216</v>
+      </c>
+      <c r="E10">
+        <v>217</v>
+      </c>
+      <c r="F10">
+        <v>218</v>
+      </c>
+      <c r="G10">
+        <v>219</v>
+      </c>
+      <c r="H10">
+        <v>217</v>
+      </c>
+      <c r="I10">
+        <v>210</v>
+      </c>
+      <c r="J10">
+        <v>193</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>95</v>
+      </c>
+      <c r="D15">
+        <v>71</v>
+      </c>
+      <c r="E15">
+        <v>57</v>
+      </c>
+      <c r="F15">
+        <v>49</v>
+      </c>
+      <c r="G15">
+        <v>43</v>
+      </c>
+      <c r="H15">
+        <v>39</v>
+      </c>
+      <c r="I15">
+        <v>38</v>
+      </c>
+      <c r="J15">
+        <v>38</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>147</v>
+      </c>
+      <c r="D16">
+        <v>115</v>
+      </c>
+      <c r="E16">
+        <v>86</v>
+      </c>
+      <c r="F16">
+        <v>63</v>
+      </c>
+      <c r="G16">
+        <v>48</v>
+      </c>
+      <c r="H16">
+        <v>42</v>
+      </c>
+      <c r="I16">
+        <v>40</v>
+      </c>
+      <c r="J16">
+        <v>39</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>191</v>
+      </c>
+      <c r="D17">
+        <v>167</v>
+      </c>
+      <c r="E17">
+        <v>136</v>
+      </c>
+      <c r="F17">
+        <v>101</v>
+      </c>
+      <c r="G17">
+        <v>72</v>
+      </c>
+      <c r="H17">
+        <v>54</v>
+      </c>
+      <c r="I17">
+        <v>45</v>
+      </c>
+      <c r="J17">
+        <v>40</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>213</v>
+      </c>
+      <c r="D18">
+        <v>203</v>
+      </c>
+      <c r="E18">
+        <v>184</v>
+      </c>
+      <c r="F18">
+        <v>153</v>
+      </c>
+      <c r="G18">
+        <v>117</v>
+      </c>
+      <c r="H18">
+        <v>85</v>
+      </c>
+      <c r="I18">
+        <v>60</v>
+      </c>
+      <c r="J18">
+        <v>45</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>218</v>
+      </c>
+      <c r="D19">
+        <v>216</v>
+      </c>
+      <c r="E19">
+        <v>209</v>
+      </c>
+      <c r="F19">
+        <v>194</v>
+      </c>
+      <c r="G19">
+        <v>168</v>
+      </c>
+      <c r="H19">
+        <v>134</v>
+      </c>
+      <c r="I19">
+        <v>95</v>
+      </c>
+      <c r="J19">
+        <v>65</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>217</v>
+      </c>
+      <c r="D20">
+        <v>217</v>
+      </c>
+      <c r="E20">
+        <v>217</v>
+      </c>
+      <c r="F20">
+        <v>213</v>
+      </c>
+      <c r="G20">
+        <v>202</v>
+      </c>
+      <c r="H20">
+        <v>180</v>
+      </c>
+      <c r="I20">
+        <v>145</v>
+      </c>
+      <c r="J20">
+        <v>107</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>216</v>
+      </c>
+      <c r="D21">
+        <v>217</v>
+      </c>
+      <c r="E21">
+        <v>218</v>
+      </c>
+      <c r="F21">
+        <v>218</v>
+      </c>
+      <c r="G21">
+        <v>216</v>
+      </c>
+      <c r="H21">
+        <v>208</v>
+      </c>
+      <c r="I21">
+        <v>189</v>
+      </c>
+      <c r="J21">
+        <v>157</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>216</v>
+      </c>
+      <c r="D22">
+        <v>216</v>
+      </c>
+      <c r="E22">
+        <v>217</v>
+      </c>
+      <c r="F22">
+        <v>218</v>
+      </c>
+      <c r="G22">
+        <v>219</v>
+      </c>
+      <c r="H22">
+        <v>218</v>
+      </c>
+      <c r="I22">
+        <v>212</v>
+      </c>
+      <c r="J22">
+        <v>196</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25">
+        <v>66</v>
+      </c>
+      <c r="C25">
+        <v>49</v>
+      </c>
+      <c r="D25">
+        <v>46</v>
+      </c>
+      <c r="E25">
+        <v>49</v>
+      </c>
+      <c r="F25">
+        <v>52</v>
+      </c>
+      <c r="G25">
+        <v>46</v>
+      </c>
+      <c r="H25">
+        <v>42</v>
+      </c>
+      <c r="I25">
+        <v>38</v>
+      </c>
+      <c r="J25">
+        <v>37</v>
+      </c>
+      <c r="K25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26">
+        <v>124</v>
+      </c>
+      <c r="C26">
+        <v>89</v>
+      </c>
+      <c r="D26">
+        <v>58</v>
+      </c>
+      <c r="E26">
+        <v>52</v>
+      </c>
+      <c r="F26">
+        <v>47</v>
+      </c>
+      <c r="G26">
+        <v>42</v>
+      </c>
+      <c r="H26">
+        <v>39</v>
+      </c>
+      <c r="I26">
+        <v>36</v>
+      </c>
+      <c r="J26">
+        <v>41</v>
+      </c>
+      <c r="K26">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27">
+        <v>187</v>
+      </c>
+      <c r="C27">
+        <v>153</v>
+      </c>
+      <c r="D27">
+        <v>110</v>
+      </c>
+      <c r="E27">
+        <v>74</v>
+      </c>
+      <c r="F27">
+        <v>52</v>
+      </c>
+      <c r="G27">
+        <v>42</v>
+      </c>
+      <c r="H27">
+        <v>38</v>
+      </c>
+      <c r="I27">
+        <v>39</v>
+      </c>
+      <c r="J27">
+        <v>42</v>
+      </c>
+      <c r="K27">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28">
+        <v>216</v>
+      </c>
+      <c r="C28">
+        <v>202</v>
+      </c>
+      <c r="D28">
+        <v>174</v>
+      </c>
+      <c r="E28">
+        <v>141</v>
+      </c>
+      <c r="F28">
+        <v>96</v>
+      </c>
+      <c r="G28">
+        <v>56</v>
+      </c>
+      <c r="H28">
+        <v>51</v>
+      </c>
+      <c r="I28">
+        <v>44</v>
+      </c>
+      <c r="J28">
+        <v>37</v>
+      </c>
+      <c r="K28">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29">
+        <v>219</v>
+      </c>
+      <c r="C29">
+        <v>219</v>
+      </c>
+      <c r="D29">
+        <v>215</v>
+      </c>
+      <c r="E29">
+        <v>197</v>
+      </c>
+      <c r="F29">
+        <v>159</v>
+      </c>
+      <c r="G29">
+        <v>114</v>
+      </c>
+      <c r="H29">
+        <v>77</v>
+      </c>
+      <c r="I29">
+        <v>45</v>
+      </c>
+      <c r="J29">
+        <v>43</v>
+      </c>
+      <c r="K29">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30">
+        <v>218</v>
+      </c>
+      <c r="C30">
+        <v>220</v>
+      </c>
+      <c r="D30">
+        <v>218</v>
+      </c>
+      <c r="E30">
+        <v>216</v>
+      </c>
+      <c r="F30">
+        <v>206</v>
+      </c>
+      <c r="G30">
+        <v>177</v>
+      </c>
+      <c r="H30">
+        <v>140</v>
+      </c>
+      <c r="I30">
+        <v>86</v>
+      </c>
+      <c r="J30">
+        <v>52</v>
+      </c>
+      <c r="K30">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31">
+        <v>218</v>
+      </c>
+      <c r="C31">
+        <v>217</v>
+      </c>
+      <c r="D31">
+        <v>217</v>
+      </c>
+      <c r="E31">
+        <v>220</v>
+      </c>
+      <c r="F31">
+        <v>219</v>
+      </c>
+      <c r="G31">
+        <v>211</v>
+      </c>
+      <c r="H31">
+        <v>193</v>
+      </c>
+      <c r="I31">
+        <v>149</v>
+      </c>
+      <c r="J31">
+        <v>103</v>
+      </c>
+      <c r="K31">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32">
+        <v>216</v>
+      </c>
+      <c r="C32">
+        <v>217</v>
+      </c>
+      <c r="D32">
+        <v>216</v>
+      </c>
+      <c r="E32">
+        <v>218</v>
+      </c>
+      <c r="F32">
+        <v>221</v>
+      </c>
+      <c r="G32">
+        <v>219</v>
+      </c>
+      <c r="H32">
+        <v>216</v>
+      </c>
+      <c r="I32">
+        <v>201</v>
+      </c>
+      <c r="J32">
+        <v>165</v>
+      </c>
+      <c r="K32">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33">
+        <v>215</v>
+      </c>
+      <c r="C33">
+        <v>216</v>
+      </c>
+      <c r="D33">
+        <v>218</v>
+      </c>
+      <c r="E33">
+        <v>217</v>
+      </c>
+      <c r="F33">
+        <v>218</v>
+      </c>
+      <c r="G33">
+        <v>219</v>
+      </c>
+      <c r="H33">
+        <v>222</v>
+      </c>
+      <c r="I33">
+        <v>219</v>
+      </c>
+      <c r="J33">
+        <v>208</v>
+      </c>
+      <c r="K33">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34">
+        <v>215</v>
+      </c>
+      <c r="C34">
+        <v>216</v>
+      </c>
+      <c r="D34">
+        <v>213</v>
+      </c>
+      <c r="E34">
+        <v>217</v>
+      </c>
+      <c r="F34">
+        <v>217</v>
+      </c>
+      <c r="G34">
+        <v>219</v>
+      </c>
+      <c r="H34">
+        <v>221</v>
+      </c>
+      <c r="I34">
+        <v>220</v>
+      </c>
+      <c r="J34">
+        <v>219</v>
+      </c>
+      <c r="K34">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:K6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:11">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3">
+        <v>66</v>
+      </c>
+      <c r="C3">
+        <v>49</v>
+      </c>
+      <c r="D3">
+        <v>46</v>
+      </c>
+      <c r="E3">
+        <v>49</v>
+      </c>
+      <c r="F3">
+        <v>52</v>
+      </c>
+      <c r="G3">
+        <v>46</v>
+      </c>
+      <c r="H3">
+        <v>42</v>
+      </c>
+      <c r="I3">
+        <v>38</v>
+      </c>
+      <c r="J3">
+        <v>37</v>
+      </c>
+      <c r="K3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4">
+        <v>124</v>
+      </c>
+      <c r="C4">
+        <v>89</v>
+      </c>
+      <c r="D4">
+        <v>58</v>
+      </c>
+      <c r="E4">
+        <v>52</v>
+      </c>
+      <c r="F4">
+        <v>47</v>
+      </c>
+      <c r="G4">
+        <v>42</v>
+      </c>
+      <c r="H4">
+        <v>39</v>
+      </c>
+      <c r="I4">
+        <v>36</v>
+      </c>
+      <c r="J4">
+        <v>41</v>
+      </c>
+      <c r="K4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5">
+        <v>187</v>
+      </c>
+      <c r="C5">
+        <v>153</v>
+      </c>
+      <c r="D5">
+        <v>110</v>
+      </c>
+      <c r="E5">
+        <v>74</v>
+      </c>
+      <c r="F5">
+        <v>52</v>
+      </c>
+      <c r="G5">
+        <v>42</v>
+      </c>
+      <c r="H5">
+        <v>38</v>
+      </c>
+      <c r="I5">
+        <v>39</v>
+      </c>
+      <c r="J5">
+        <v>42</v>
+      </c>
+      <c r="K5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6">
+        <v>216</v>
+      </c>
+      <c r="C6">
+        <v>202</v>
+      </c>
+      <c r="D6">
+        <v>174</v>
+      </c>
+      <c r="E6">
+        <v>141</v>
+      </c>
+      <c r="F6">
+        <v>96</v>
+      </c>
+      <c r="G6">
+        <v>56</v>
+      </c>
+      <c r="H6">
+        <v>51</v>
+      </c>
+      <c r="I6">
+        <v>44</v>
+      </c>
+      <c r="J6">
+        <v>37</v>
+      </c>
+      <c r="K6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7">
+        <v>219</v>
+      </c>
+      <c r="C7">
+        <v>219</v>
+      </c>
+      <c r="D7">
+        <v>215</v>
+      </c>
+      <c r="E7">
+        <v>197</v>
+      </c>
+      <c r="F7">
+        <v>159</v>
+      </c>
+      <c r="G7">
+        <v>114</v>
+      </c>
+      <c r="H7">
+        <v>77</v>
+      </c>
+      <c r="I7">
+        <v>45</v>
+      </c>
+      <c r="J7">
+        <v>43</v>
+      </c>
+      <c r="K7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8">
+        <v>218</v>
+      </c>
+      <c r="C8">
+        <v>220</v>
+      </c>
+      <c r="D8">
+        <v>218</v>
+      </c>
+      <c r="E8">
+        <v>216</v>
+      </c>
+      <c r="F8">
+        <v>206</v>
+      </c>
+      <c r="G8">
+        <v>177</v>
+      </c>
+      <c r="H8">
+        <v>140</v>
+      </c>
+      <c r="I8">
+        <v>86</v>
+      </c>
+      <c r="J8">
+        <v>52</v>
+      </c>
+      <c r="K8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9">
+        <v>218</v>
+      </c>
+      <c r="C9">
+        <v>217</v>
+      </c>
+      <c r="D9">
+        <v>217</v>
+      </c>
+      <c r="E9">
+        <v>220</v>
+      </c>
+      <c r="F9">
+        <v>219</v>
+      </c>
+      <c r="G9">
+        <v>211</v>
+      </c>
+      <c r="H9">
+        <v>193</v>
+      </c>
+      <c r="I9">
+        <v>149</v>
+      </c>
+      <c r="J9">
+        <v>103</v>
+      </c>
+      <c r="K9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10">
+        <v>216</v>
+      </c>
+      <c r="C10">
+        <v>217</v>
+      </c>
+      <c r="D10">
+        <v>216</v>
+      </c>
+      <c r="E10">
+        <v>218</v>
+      </c>
+      <c r="F10">
+        <v>221</v>
+      </c>
+      <c r="G10">
+        <v>219</v>
+      </c>
+      <c r="H10">
+        <v>216</v>
+      </c>
+      <c r="I10">
+        <v>201</v>
+      </c>
+      <c r="J10">
+        <v>165</v>
+      </c>
+      <c r="K10">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11">
+        <v>215</v>
+      </c>
+      <c r="C11">
+        <v>216</v>
+      </c>
+      <c r="D11">
+        <v>218</v>
+      </c>
+      <c r="E11">
+        <v>217</v>
+      </c>
+      <c r="F11">
+        <v>218</v>
+      </c>
+      <c r="G11">
+        <v>219</v>
+      </c>
+      <c r="H11">
+        <v>222</v>
+      </c>
+      <c r="I11">
+        <v>219</v>
+      </c>
+      <c r="J11">
+        <v>208</v>
+      </c>
+      <c r="K11">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12">
+        <v>215</v>
+      </c>
+      <c r="C12">
+        <v>216</v>
+      </c>
+      <c r="D12">
+        <v>213</v>
+      </c>
+      <c r="E12">
+        <v>217</v>
+      </c>
+      <c r="F12">
+        <v>217</v>
+      </c>
+      <c r="G12">
+        <v>219</v>
+      </c>
+      <c r="H12">
+        <v>221</v>
+      </c>
+      <c r="I12">
+        <v>220</v>
+      </c>
+      <c r="J12">
+        <v>219</v>
+      </c>
+      <c r="K12">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>294</v>
+      </c>
+      <c r="D16">
+        <v>203</v>
+      </c>
+      <c r="E16">
+        <v>98</v>
+      </c>
+      <c r="F16">
+        <v>44</v>
+      </c>
+      <c r="G16">
+        <v>29</v>
+      </c>
+      <c r="H16">
+        <v>16</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>304</v>
+      </c>
+      <c r="D17">
+        <v>301</v>
+      </c>
+      <c r="E17">
+        <v>265</v>
+      </c>
+      <c r="F17">
+        <v>179</v>
+      </c>
+      <c r="G17">
+        <v>90</v>
+      </c>
+      <c r="H17">
+        <v>36</v>
+      </c>
+      <c r="I17">
+        <v>16</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>214</v>
+      </c>
+      <c r="D18">
+        <v>294</v>
+      </c>
+      <c r="E18">
+        <v>308</v>
+      </c>
+      <c r="F18">
+        <v>312</v>
+      </c>
+      <c r="G18">
+        <v>234</v>
+      </c>
+      <c r="H18">
+        <v>130</v>
+      </c>
+      <c r="I18">
+        <v>57</v>
+      </c>
+      <c r="J18">
+        <v>15</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>71</v>
+      </c>
+      <c r="D19">
+        <v>146</v>
+      </c>
+      <c r="E19">
+        <v>245</v>
+      </c>
+      <c r="F19">
+        <v>316</v>
+      </c>
+      <c r="G19">
+        <v>309</v>
+      </c>
+      <c r="H19">
+        <v>275</v>
+      </c>
+      <c r="I19">
+        <v>180</v>
+      </c>
+      <c r="J19">
+        <v>75</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>29</v>
+      </c>
+      <c r="E20">
+        <v>97</v>
+      </c>
+      <c r="F20">
+        <v>201</v>
+      </c>
+      <c r="G20">
+        <v>292</v>
+      </c>
+      <c r="H20">
+        <v>324</v>
+      </c>
+      <c r="I20">
+        <v>317</v>
+      </c>
+      <c r="J20">
+        <v>205</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>14</v>
+      </c>
+      <c r="F21">
+        <v>68</v>
+      </c>
+      <c r="G21">
+        <v>148</v>
+      </c>
+      <c r="H21">
+        <v>261</v>
+      </c>
+      <c r="I21">
+        <v>328</v>
+      </c>
+      <c r="J21">
+        <v>320</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>40</v>
+      </c>
+      <c r="H22">
+        <v>120</v>
+      </c>
+      <c r="I22">
+        <v>231</v>
+      </c>
+      <c r="J22">
+        <v>320</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>26</v>
+      </c>
+      <c r="I23">
+        <v>92</v>
+      </c>
+      <c r="J23">
+        <v>191</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/exp_c/slide/data.xlsx
+++ b/exp_c/slide/data.xlsx
@@ -3,14 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47D6D02-68FC-4F61-875A-7724B40436C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4417D45C-DFFB-4E3D-8CDE-AA486EDF2DFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="グラフ" sheetId="1" r:id="rId1"/>
     <sheet name="平滑化" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="prewitt" sheetId="3" r:id="rId3"/>
+    <sheet name="lap" sheetId="4" r:id="rId4"/>
+    <sheet name="shape" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>平均</t>
     <rPh sb="0" eb="2">
@@ -48,6 +50,14 @@
     <rPh sb="0" eb="1">
       <t>モト</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shape</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3854,37 +3864,37 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet3!$B$6:$K$6</c15:sqref>
+                    <c15:sqref>prewitt!$B$7:$K$7</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet3!$C$6:$J$6</c:f>
+              <c:f>prewitt!$C$7:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>202</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>174</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>141</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>96</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3950,37 +3960,37 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet3!$B$18:$K$18</c15:sqref>
+                    <c15:sqref>prewitt!$B$19:$K$19</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet3!$C$18:$J$18</c:f>
+              <c:f>prewitt!$C$19:$J$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>214</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>294</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>308</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>312</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>234</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>130</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4059,6 +4069,7 @@
         <c:axId val="1081408656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="255"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4110,6 +4121,693 @@
         <c:crossAx val="953140592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="51"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>lap!$B$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD72-4777-9AF3-EE7BE01A6806}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>lap!$B$19:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CD72-4777-9AF3-EE7BE01A6806}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="953140592"/>
+        <c:axId val="1081408656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="953140592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1081408656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1081408656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="255"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="953140592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="51"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>shape!$B$7:$K$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>shape!$C$7:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2EAE-42DC-A779-ED0B0C6D62E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>shape!$B$19:$K$19</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>shape!$C$19:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2EAE-42DC-A779-ED0B0C6D62E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="953140592"/>
+        <c:axId val="1081408656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="953140592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1081408656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1081408656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="255"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="953140592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="51"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -8617,6 +9315,86 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10204,6 +10982,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -10772,14 +12582,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>204787</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>42862</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10791,6 +12601,92 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>385763</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1479B33-5E34-49DF-9414-91479B7421E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>442913</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{295ED147-D90D-49CA-8A78-957BAE0AEE86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -13294,8 +15190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:K34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -14287,8 +16183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -14655,28 +16551,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>294</v>
+        <v>150</v>
       </c>
       <c r="D16">
-        <v>203</v>
+        <v>101</v>
       </c>
       <c r="E16">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="F16">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="G16">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -14687,28 +16583,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>304</v>
+        <v>167</v>
       </c>
       <c r="D17">
-        <v>301</v>
+        <v>164</v>
       </c>
       <c r="E17">
-        <v>265</v>
+        <v>132</v>
       </c>
       <c r="F17">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="G17">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="H17">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I17">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -14719,28 +16615,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>214</v>
+        <v>107</v>
       </c>
       <c r="D18">
-        <v>294</v>
+        <v>151</v>
       </c>
       <c r="E18">
-        <v>308</v>
+        <v>174</v>
       </c>
       <c r="F18">
-        <v>312</v>
+        <v>163</v>
       </c>
       <c r="G18">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="H18">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="I18">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="J18">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -14751,28 +16647,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="D19">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="E19">
-        <v>245</v>
+        <v>122</v>
       </c>
       <c r="F19">
-        <v>316</v>
+        <v>167</v>
       </c>
       <c r="G19">
-        <v>309</v>
+        <v>168</v>
       </c>
       <c r="H19">
-        <v>275</v>
+        <v>137</v>
       </c>
       <c r="I19">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="J19">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -14783,28 +16679,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E20">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="F20">
-        <v>201</v>
+        <v>100</v>
       </c>
       <c r="G20">
-        <v>292</v>
+        <v>146</v>
       </c>
       <c r="H20">
-        <v>324</v>
+        <v>174</v>
       </c>
       <c r="I20">
-        <v>317</v>
+        <v>158</v>
       </c>
       <c r="J20">
-        <v>205</v>
+        <v>102</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -14815,28 +16711,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F21">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="G21">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="H21">
-        <v>261</v>
+        <v>130</v>
       </c>
       <c r="I21">
-        <v>328</v>
+        <v>172</v>
       </c>
       <c r="J21">
-        <v>320</v>
+        <v>167</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -14847,28 +16743,28 @@
         <v>0</v>
       </c>
       <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
         <v>3</v>
       </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-      <c r="E22">
-        <v>6</v>
-      </c>
       <c r="F22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H22">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="I22">
-        <v>231</v>
+        <v>115</v>
       </c>
       <c r="J22">
-        <v>320</v>
+        <v>164</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -14879,28 +16775,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
         <v>5</v>
       </c>
-      <c r="E23">
-        <v>10</v>
-      </c>
       <c r="F23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="I23">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="J23">
-        <v>191</v>
+        <v>95</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -14944,4 +16840,1339 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35AD115B-4D42-49BD-8BC5-5112987B38EF}">
+  <dimension ref="B2:K24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="2:11">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3">
+        <v>66</v>
+      </c>
+      <c r="C3">
+        <v>49</v>
+      </c>
+      <c r="D3">
+        <v>46</v>
+      </c>
+      <c r="E3">
+        <v>49</v>
+      </c>
+      <c r="F3">
+        <v>52</v>
+      </c>
+      <c r="G3">
+        <v>46</v>
+      </c>
+      <c r="H3">
+        <v>42</v>
+      </c>
+      <c r="I3">
+        <v>38</v>
+      </c>
+      <c r="J3">
+        <v>37</v>
+      </c>
+      <c r="K3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4">
+        <v>124</v>
+      </c>
+      <c r="C4">
+        <v>89</v>
+      </c>
+      <c r="D4">
+        <v>58</v>
+      </c>
+      <c r="E4">
+        <v>52</v>
+      </c>
+      <c r="F4">
+        <v>47</v>
+      </c>
+      <c r="G4">
+        <v>42</v>
+      </c>
+      <c r="H4">
+        <v>39</v>
+      </c>
+      <c r="I4">
+        <v>36</v>
+      </c>
+      <c r="J4">
+        <v>41</v>
+      </c>
+      <c r="K4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5">
+        <v>187</v>
+      </c>
+      <c r="C5">
+        <v>153</v>
+      </c>
+      <c r="D5">
+        <v>110</v>
+      </c>
+      <c r="E5">
+        <v>74</v>
+      </c>
+      <c r="F5">
+        <v>52</v>
+      </c>
+      <c r="G5">
+        <v>42</v>
+      </c>
+      <c r="H5">
+        <v>38</v>
+      </c>
+      <c r="I5">
+        <v>39</v>
+      </c>
+      <c r="J5">
+        <v>42</v>
+      </c>
+      <c r="K5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6">
+        <v>216</v>
+      </c>
+      <c r="C6">
+        <v>202</v>
+      </c>
+      <c r="D6">
+        <v>174</v>
+      </c>
+      <c r="E6">
+        <v>141</v>
+      </c>
+      <c r="F6">
+        <v>96</v>
+      </c>
+      <c r="G6">
+        <v>56</v>
+      </c>
+      <c r="H6">
+        <v>51</v>
+      </c>
+      <c r="I6">
+        <v>44</v>
+      </c>
+      <c r="J6">
+        <v>37</v>
+      </c>
+      <c r="K6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7">
+        <v>219</v>
+      </c>
+      <c r="C7">
+        <v>219</v>
+      </c>
+      <c r="D7">
+        <v>215</v>
+      </c>
+      <c r="E7">
+        <v>197</v>
+      </c>
+      <c r="F7">
+        <v>159</v>
+      </c>
+      <c r="G7">
+        <v>114</v>
+      </c>
+      <c r="H7">
+        <v>77</v>
+      </c>
+      <c r="I7">
+        <v>45</v>
+      </c>
+      <c r="J7">
+        <v>43</v>
+      </c>
+      <c r="K7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8">
+        <v>218</v>
+      </c>
+      <c r="C8">
+        <v>220</v>
+      </c>
+      <c r="D8">
+        <v>218</v>
+      </c>
+      <c r="E8">
+        <v>216</v>
+      </c>
+      <c r="F8">
+        <v>206</v>
+      </c>
+      <c r="G8">
+        <v>177</v>
+      </c>
+      <c r="H8">
+        <v>140</v>
+      </c>
+      <c r="I8">
+        <v>86</v>
+      </c>
+      <c r="J8">
+        <v>52</v>
+      </c>
+      <c r="K8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9">
+        <v>218</v>
+      </c>
+      <c r="C9">
+        <v>217</v>
+      </c>
+      <c r="D9">
+        <v>217</v>
+      </c>
+      <c r="E9">
+        <v>220</v>
+      </c>
+      <c r="F9">
+        <v>219</v>
+      </c>
+      <c r="G9">
+        <v>211</v>
+      </c>
+      <c r="H9">
+        <v>193</v>
+      </c>
+      <c r="I9">
+        <v>149</v>
+      </c>
+      <c r="J9">
+        <v>103</v>
+      </c>
+      <c r="K9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10">
+        <v>216</v>
+      </c>
+      <c r="C10">
+        <v>217</v>
+      </c>
+      <c r="D10">
+        <v>216</v>
+      </c>
+      <c r="E10">
+        <v>218</v>
+      </c>
+      <c r="F10">
+        <v>221</v>
+      </c>
+      <c r="G10">
+        <v>219</v>
+      </c>
+      <c r="H10">
+        <v>216</v>
+      </c>
+      <c r="I10">
+        <v>201</v>
+      </c>
+      <c r="J10">
+        <v>165</v>
+      </c>
+      <c r="K10">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11">
+        <v>215</v>
+      </c>
+      <c r="C11">
+        <v>216</v>
+      </c>
+      <c r="D11">
+        <v>218</v>
+      </c>
+      <c r="E11">
+        <v>217</v>
+      </c>
+      <c r="F11">
+        <v>218</v>
+      </c>
+      <c r="G11">
+        <v>219</v>
+      </c>
+      <c r="H11">
+        <v>222</v>
+      </c>
+      <c r="I11">
+        <v>219</v>
+      </c>
+      <c r="J11">
+        <v>208</v>
+      </c>
+      <c r="K11">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12">
+        <v>215</v>
+      </c>
+      <c r="C12">
+        <v>216</v>
+      </c>
+      <c r="D12">
+        <v>213</v>
+      </c>
+      <c r="E12">
+        <v>217</v>
+      </c>
+      <c r="F12">
+        <v>217</v>
+      </c>
+      <c r="G12">
+        <v>219</v>
+      </c>
+      <c r="H12">
+        <v>221</v>
+      </c>
+      <c r="I12">
+        <v>220</v>
+      </c>
+      <c r="J12">
+        <v>219</v>
+      </c>
+      <c r="K12">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>69</v>
+      </c>
+      <c r="D16">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>188</v>
+      </c>
+      <c r="F16">
+        <v>203</v>
+      </c>
+      <c r="G16">
+        <v>214</v>
+      </c>
+      <c r="H16">
+        <v>228</v>
+      </c>
+      <c r="I16">
+        <v>248</v>
+      </c>
+      <c r="J16">
+        <v>248</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <v>48</v>
+      </c>
+      <c r="E17">
+        <v>87</v>
+      </c>
+      <c r="F17">
+        <v>123</v>
+      </c>
+      <c r="G17">
+        <v>183</v>
+      </c>
+      <c r="H17">
+        <v>227</v>
+      </c>
+      <c r="I17">
+        <v>242</v>
+      </c>
+      <c r="J17">
+        <v>238</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>118</v>
+      </c>
+      <c r="D18">
+        <v>73</v>
+      </c>
+      <c r="E18">
+        <v>37</v>
+      </c>
+      <c r="F18">
+        <v>26</v>
+      </c>
+      <c r="G18">
+        <v>102</v>
+      </c>
+      <c r="H18">
+        <v>171</v>
+      </c>
+      <c r="I18">
+        <v>201</v>
+      </c>
+      <c r="J18">
+        <v>230</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>207</v>
+      </c>
+      <c r="D19">
+        <v>161</v>
+      </c>
+      <c r="E19">
+        <v>90</v>
+      </c>
+      <c r="F19">
+        <v>22</v>
+      </c>
+      <c r="G19">
+        <v>33</v>
+      </c>
+      <c r="H19">
+        <v>60</v>
+      </c>
+      <c r="I19">
+        <v>114</v>
+      </c>
+      <c r="J19">
+        <v>201</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>241</v>
+      </c>
+      <c r="D20">
+        <v>224</v>
+      </c>
+      <c r="E20">
+        <v>185</v>
+      </c>
+      <c r="F20">
+        <v>114</v>
+      </c>
+      <c r="G20">
+        <v>60</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>14</v>
+      </c>
+      <c r="J20">
+        <v>108</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>244</v>
+      </c>
+      <c r="D21">
+        <v>248</v>
+      </c>
+      <c r="E21">
+        <v>243</v>
+      </c>
+      <c r="F21">
+        <v>202</v>
+      </c>
+      <c r="G21">
+        <v>150</v>
+      </c>
+      <c r="H21">
+        <v>66</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>11</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>247</v>
+      </c>
+      <c r="D22">
+        <v>250</v>
+      </c>
+      <c r="E22">
+        <v>255</v>
+      </c>
+      <c r="F22">
+        <v>241</v>
+      </c>
+      <c r="G22">
+        <v>221</v>
+      </c>
+      <c r="H22">
+        <v>170</v>
+      </c>
+      <c r="I22">
+        <v>87</v>
+      </c>
+      <c r="J22">
+        <v>17</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>248</v>
+      </c>
+      <c r="D23">
+        <v>248</v>
+      </c>
+      <c r="E23">
+        <v>252</v>
+      </c>
+      <c r="F23">
+        <v>251</v>
+      </c>
+      <c r="G23">
+        <v>251</v>
+      </c>
+      <c r="H23">
+        <v>232</v>
+      </c>
+      <c r="I23">
+        <v>183</v>
+      </c>
+      <c r="J23">
+        <v>110</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F14E988-7BE8-477D-A805-0C8C04343F65}">
+  <dimension ref="B2:K24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="2:11">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3">
+        <v>66</v>
+      </c>
+      <c r="C3">
+        <v>49</v>
+      </c>
+      <c r="D3">
+        <v>46</v>
+      </c>
+      <c r="E3">
+        <v>49</v>
+      </c>
+      <c r="F3">
+        <v>52</v>
+      </c>
+      <c r="G3">
+        <v>46</v>
+      </c>
+      <c r="H3">
+        <v>42</v>
+      </c>
+      <c r="I3">
+        <v>38</v>
+      </c>
+      <c r="J3">
+        <v>37</v>
+      </c>
+      <c r="K3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4">
+        <v>124</v>
+      </c>
+      <c r="C4">
+        <v>89</v>
+      </c>
+      <c r="D4">
+        <v>58</v>
+      </c>
+      <c r="E4">
+        <v>52</v>
+      </c>
+      <c r="F4">
+        <v>47</v>
+      </c>
+      <c r="G4">
+        <v>42</v>
+      </c>
+      <c r="H4">
+        <v>39</v>
+      </c>
+      <c r="I4">
+        <v>36</v>
+      </c>
+      <c r="J4">
+        <v>41</v>
+      </c>
+      <c r="K4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5">
+        <v>187</v>
+      </c>
+      <c r="C5">
+        <v>153</v>
+      </c>
+      <c r="D5">
+        <v>110</v>
+      </c>
+      <c r="E5">
+        <v>74</v>
+      </c>
+      <c r="F5">
+        <v>52</v>
+      </c>
+      <c r="G5">
+        <v>42</v>
+      </c>
+      <c r="H5">
+        <v>38</v>
+      </c>
+      <c r="I5">
+        <v>39</v>
+      </c>
+      <c r="J5">
+        <v>42</v>
+      </c>
+      <c r="K5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6">
+        <v>216</v>
+      </c>
+      <c r="C6">
+        <v>202</v>
+      </c>
+      <c r="D6">
+        <v>174</v>
+      </c>
+      <c r="E6">
+        <v>141</v>
+      </c>
+      <c r="F6">
+        <v>96</v>
+      </c>
+      <c r="G6">
+        <v>56</v>
+      </c>
+      <c r="H6">
+        <v>51</v>
+      </c>
+      <c r="I6">
+        <v>44</v>
+      </c>
+      <c r="J6">
+        <v>37</v>
+      </c>
+      <c r="K6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7">
+        <v>219</v>
+      </c>
+      <c r="C7">
+        <v>219</v>
+      </c>
+      <c r="D7">
+        <v>215</v>
+      </c>
+      <c r="E7">
+        <v>197</v>
+      </c>
+      <c r="F7">
+        <v>159</v>
+      </c>
+      <c r="G7">
+        <v>114</v>
+      </c>
+      <c r="H7">
+        <v>77</v>
+      </c>
+      <c r="I7">
+        <v>45</v>
+      </c>
+      <c r="J7">
+        <v>43</v>
+      </c>
+      <c r="K7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8">
+        <v>218</v>
+      </c>
+      <c r="C8">
+        <v>220</v>
+      </c>
+      <c r="D8">
+        <v>218</v>
+      </c>
+      <c r="E8">
+        <v>216</v>
+      </c>
+      <c r="F8">
+        <v>206</v>
+      </c>
+      <c r="G8">
+        <v>177</v>
+      </c>
+      <c r="H8">
+        <v>140</v>
+      </c>
+      <c r="I8">
+        <v>86</v>
+      </c>
+      <c r="J8">
+        <v>52</v>
+      </c>
+      <c r="K8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9">
+        <v>218</v>
+      </c>
+      <c r="C9">
+        <v>217</v>
+      </c>
+      <c r="D9">
+        <v>217</v>
+      </c>
+      <c r="E9">
+        <v>220</v>
+      </c>
+      <c r="F9">
+        <v>219</v>
+      </c>
+      <c r="G9">
+        <v>211</v>
+      </c>
+      <c r="H9">
+        <v>193</v>
+      </c>
+      <c r="I9">
+        <v>149</v>
+      </c>
+      <c r="J9">
+        <v>103</v>
+      </c>
+      <c r="K9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10">
+        <v>216</v>
+      </c>
+      <c r="C10">
+        <v>217</v>
+      </c>
+      <c r="D10">
+        <v>216</v>
+      </c>
+      <c r="E10">
+        <v>218</v>
+      </c>
+      <c r="F10">
+        <v>221</v>
+      </c>
+      <c r="G10">
+        <v>219</v>
+      </c>
+      <c r="H10">
+        <v>216</v>
+      </c>
+      <c r="I10">
+        <v>201</v>
+      </c>
+      <c r="J10">
+        <v>165</v>
+      </c>
+      <c r="K10">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11">
+        <v>215</v>
+      </c>
+      <c r="C11">
+        <v>216</v>
+      </c>
+      <c r="D11">
+        <v>218</v>
+      </c>
+      <c r="E11">
+        <v>217</v>
+      </c>
+      <c r="F11">
+        <v>218</v>
+      </c>
+      <c r="G11">
+        <v>219</v>
+      </c>
+      <c r="H11">
+        <v>222</v>
+      </c>
+      <c r="I11">
+        <v>219</v>
+      </c>
+      <c r="J11">
+        <v>208</v>
+      </c>
+      <c r="K11">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12">
+        <v>215</v>
+      </c>
+      <c r="C12">
+        <v>216</v>
+      </c>
+      <c r="D12">
+        <v>213</v>
+      </c>
+      <c r="E12">
+        <v>217</v>
+      </c>
+      <c r="F12">
+        <v>217</v>
+      </c>
+      <c r="G12">
+        <v>219</v>
+      </c>
+      <c r="H12">
+        <v>221</v>
+      </c>
+      <c r="I12">
+        <v>220</v>
+      </c>
+      <c r="J12">
+        <v>219</v>
+      </c>
+      <c r="K12">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>61</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>32</v>
+      </c>
+      <c r="F16">
+        <v>37</v>
+      </c>
+      <c r="G16">
+        <v>36</v>
+      </c>
+      <c r="H16">
+        <v>37</v>
+      </c>
+      <c r="I16">
+        <v>23</v>
+      </c>
+      <c r="J16">
+        <v>52</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>177</v>
+      </c>
+      <c r="D17">
+        <v>91</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>22</v>
+      </c>
+      <c r="H17">
+        <v>19</v>
+      </c>
+      <c r="I17">
+        <v>35</v>
+      </c>
+      <c r="J17">
+        <v>56</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>248</v>
+      </c>
+      <c r="D18">
+        <v>202</v>
+      </c>
+      <c r="E18">
+        <v>164</v>
+      </c>
+      <c r="F18">
+        <v>72</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>40</v>
+      </c>
+      <c r="I18">
+        <v>48</v>
+      </c>
+      <c r="J18">
+        <v>19</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>239</v>
+      </c>
+      <c r="D19">
+        <v>255</v>
+      </c>
+      <c r="E19">
+        <v>254</v>
+      </c>
+      <c r="F19">
+        <v>182</v>
+      </c>
+      <c r="G19">
+        <v>101</v>
+      </c>
+      <c r="H19">
+        <v>35</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>40</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>228</v>
+      </c>
+      <c r="D20">
+        <v>222</v>
+      </c>
+      <c r="E20">
+        <v>239</v>
+      </c>
+      <c r="F20">
+        <v>255</v>
+      </c>
+      <c r="G20">
+        <v>214</v>
+      </c>
+      <c r="H20">
+        <v>167</v>
+      </c>
+      <c r="I20">
+        <v>44</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>213</v>
+      </c>
+      <c r="D21">
+        <v>214</v>
+      </c>
+      <c r="E21">
+        <v>230</v>
+      </c>
+      <c r="F21">
+        <v>237</v>
+      </c>
+      <c r="G21">
+        <v>247</v>
+      </c>
+      <c r="H21">
+        <v>249</v>
+      </c>
+      <c r="I21">
+        <v>162</v>
+      </c>
+      <c r="J21">
+        <v>90</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>220</v>
+      </c>
+      <c r="D22">
+        <v>210</v>
+      </c>
+      <c r="E22">
+        <v>216</v>
+      </c>
+      <c r="F22">
+        <v>231</v>
+      </c>
+      <c r="G22">
+        <v>228</v>
+      </c>
+      <c r="H22">
+        <v>245</v>
+      </c>
+      <c r="I22">
+        <v>255</v>
+      </c>
+      <c r="J22">
+        <v>194</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>214</v>
+      </c>
+      <c r="D23">
+        <v>228</v>
+      </c>
+      <c r="E23">
+        <v>214</v>
+      </c>
+      <c r="F23">
+        <v>216</v>
+      </c>
+      <c r="G23">
+        <v>217</v>
+      </c>
+      <c r="H23">
+        <v>235</v>
+      </c>
+      <c r="I23">
+        <v>244</v>
+      </c>
+      <c r="J23">
+        <v>255</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/exp_c/slide/data.xlsx
+++ b/exp_c/slide/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4417D45C-DFFB-4E3D-8CDE-AA486EDF2DFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C42980-5C2A-4676-8488-676AA90BCFD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="グラフ" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>平均</t>
     <rPh sb="0" eb="2">
@@ -53,11 +53,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>lap</t>
+    <t>shape</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>shape</t>
+    <t>lap4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lap8</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4203,41 +4207,76 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>lap!$B$7:$K$7</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>lap!$B$7:$K$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>lap!$C$7:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>219</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>215</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>197</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>159</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>114</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>77</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4264,41 +4303,76 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>lap!$B$19:$K$19</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>lap!$B$19:$K$19</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>lap!$C$19:$J$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>161</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>90</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4321,6 +4395,76 @@
         <c:smooth val="0"/>
         <c:axId val="953140592"/>
         <c:axId val="1081408656"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>lap!$B$31:$K$31</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>lap!$C$31:$J$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>154</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>190</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>246</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>148</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-AE62-4CF6-857C-B5E5A67AD0BD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="953140592"/>
@@ -16844,10 +16988,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35AD115B-4D42-49BD-8BC5-5112987B38EF}">
-  <dimension ref="B2:K24"/>
+  <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:K12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -17179,7 +17323,7 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -17219,28 +17363,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="D16">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="E16">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="F16">
-        <v>203</v>
+        <v>125</v>
       </c>
       <c r="G16">
-        <v>214</v>
+        <v>118</v>
       </c>
       <c r="H16">
-        <v>228</v>
+        <v>110</v>
       </c>
       <c r="I16">
-        <v>248</v>
+        <v>131</v>
       </c>
       <c r="J16">
-        <v>248</v>
+        <v>86</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -17251,28 +17395,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D17">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="E17">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="F17">
-        <v>123</v>
+        <v>202</v>
       </c>
       <c r="G17">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="H17">
-        <v>227</v>
+        <v>142</v>
       </c>
       <c r="I17">
-        <v>242</v>
+        <v>114</v>
       </c>
       <c r="J17">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -17283,28 +17427,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="E18">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="F18">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="G18">
-        <v>102</v>
+        <v>255</v>
       </c>
       <c r="H18">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="I18">
-        <v>201</v>
+        <v>99</v>
       </c>
       <c r="J18">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -17315,28 +17459,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>207</v>
+        <v>69</v>
       </c>
       <c r="D19">
-        <v>161</v>
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="G19">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="H19">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="I19">
-        <v>114</v>
+        <v>238</v>
       </c>
       <c r="J19">
-        <v>201</v>
+        <v>112</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -17347,28 +17491,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>241</v>
+        <v>91</v>
       </c>
       <c r="D20">
-        <v>224</v>
+        <v>99</v>
       </c>
       <c r="E20">
+        <v>63</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+      <c r="G20">
+        <v>37</v>
+      </c>
+      <c r="H20">
+        <v>56</v>
+      </c>
+      <c r="I20">
         <v>185</v>
       </c>
-      <c r="F20">
-        <v>114</v>
-      </c>
-      <c r="G20">
-        <v>60</v>
-      </c>
-      <c r="H20">
-        <v>4</v>
-      </c>
-      <c r="I20">
-        <v>14</v>
-      </c>
       <c r="J20">
-        <v>108</v>
+        <v>234</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -17379,28 +17523,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>244</v>
+        <v>114</v>
       </c>
       <c r="D21">
-        <v>248</v>
+        <v>112</v>
       </c>
       <c r="E21">
-        <v>243</v>
+        <v>88</v>
       </c>
       <c r="F21">
-        <v>202</v>
+        <v>73</v>
       </c>
       <c r="G21">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="H21">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="J21">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -17411,28 +17555,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>247</v>
+        <v>101</v>
       </c>
       <c r="D22">
-        <v>250</v>
+        <v>118</v>
       </c>
       <c r="E22">
-        <v>255</v>
+        <v>110</v>
       </c>
       <c r="F22">
-        <v>241</v>
+        <v>88</v>
       </c>
       <c r="G22">
-        <v>221</v>
+        <v>90</v>
       </c>
       <c r="H22">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="I22">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="J22">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -17443,28 +17587,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>248</v>
+        <v>110</v>
       </c>
       <c r="D23">
-        <v>248</v>
+        <v>88</v>
       </c>
       <c r="E23">
-        <v>252</v>
+        <v>112</v>
       </c>
       <c r="F23">
-        <v>251</v>
+        <v>110</v>
       </c>
       <c r="G23">
-        <v>251</v>
+        <v>110</v>
       </c>
       <c r="H23">
-        <v>232</v>
+        <v>82</v>
       </c>
       <c r="I23">
-        <v>183</v>
+        <v>60</v>
       </c>
       <c r="J23">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -17499,6 +17643,331 @@
         <v>0</v>
       </c>
       <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>178</v>
+      </c>
+      <c r="D28">
+        <v>237</v>
+      </c>
+      <c r="E28">
+        <v>171</v>
+      </c>
+      <c r="F28">
+        <v>141</v>
+      </c>
+      <c r="G28">
+        <v>132</v>
+      </c>
+      <c r="H28">
+        <v>124</v>
+      </c>
+      <c r="I28">
+        <v>137</v>
+      </c>
+      <c r="J28">
+        <v>99</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>66</v>
+      </c>
+      <c r="D29">
+        <v>164</v>
+      </c>
+      <c r="E29">
+        <v>221</v>
+      </c>
+      <c r="F29">
+        <v>218</v>
+      </c>
+      <c r="G29">
+        <v>181</v>
+      </c>
+      <c r="H29">
+        <v>150</v>
+      </c>
+      <c r="I29">
+        <v>128</v>
+      </c>
+      <c r="J29">
+        <v>95</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>21</v>
+      </c>
+      <c r="D30">
+        <v>53</v>
+      </c>
+      <c r="E30">
+        <v>76</v>
+      </c>
+      <c r="F30">
+        <v>167</v>
+      </c>
+      <c r="G30">
+        <v>255</v>
+      </c>
+      <c r="H30">
+        <v>152</v>
+      </c>
+      <c r="I30">
+        <v>131</v>
+      </c>
+      <c r="J30">
+        <v>140</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>62</v>
+      </c>
+      <c r="D31">
+        <v>13</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>62</v>
+      </c>
+      <c r="G31">
+        <v>154</v>
+      </c>
+      <c r="H31">
+        <v>190</v>
+      </c>
+      <c r="I31">
+        <v>246</v>
+      </c>
+      <c r="J31">
+        <v>148</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>101</v>
+      </c>
+      <c r="D32">
+        <v>98</v>
+      </c>
+      <c r="E32">
+        <v>56</v>
+      </c>
+      <c r="F32">
+        <v>12</v>
+      </c>
+      <c r="G32">
+        <v>41</v>
+      </c>
+      <c r="H32">
+        <v>63</v>
+      </c>
+      <c r="I32">
+        <v>203</v>
+      </c>
+      <c r="J32">
+        <v>234</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>119</v>
+      </c>
+      <c r="D33">
+        <v>120</v>
+      </c>
+      <c r="E33">
+        <v>93</v>
+      </c>
+      <c r="F33">
+        <v>66</v>
+      </c>
+      <c r="G33">
+        <v>41</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <v>88</v>
+      </c>
+      <c r="J33">
+        <v>155</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>113</v>
+      </c>
+      <c r="D34">
+        <v>125</v>
+      </c>
+      <c r="E34">
+        <v>117</v>
+      </c>
+      <c r="F34">
+        <v>95</v>
+      </c>
+      <c r="G34">
+        <v>90</v>
+      </c>
+      <c r="H34">
+        <v>43</v>
+      </c>
+      <c r="I34">
+        <v>13</v>
+      </c>
+      <c r="J34">
+        <v>50</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>114</v>
+      </c>
+      <c r="D35">
+        <v>105</v>
+      </c>
+      <c r="E35">
+        <v>117</v>
+      </c>
+      <c r="F35">
+        <v>118</v>
+      </c>
+      <c r="G35">
+        <v>116</v>
+      </c>
+      <c r="H35">
+        <v>83</v>
+      </c>
+      <c r="I35">
+        <v>54</v>
+      </c>
+      <c r="J35">
+        <v>13</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
         <v>0</v>
       </c>
     </row>
@@ -17514,7 +17983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F14E988-7BE8-477D-A805-0C8C04343F65}">
   <dimension ref="B2:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19:J19"/>
     </sheetView>
   </sheetViews>
@@ -17847,7 +18316,7 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:11">

--- a/exp_c/slide/data.xlsx
+++ b/exp_c/slide/data.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C42980-5C2A-4676-8488-676AA90BCFD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78118AE4-DBD6-4F5D-A398-84A8BEE68EC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="グラフ" sheetId="1" r:id="rId1"/>
     <sheet name="平滑化" sheetId="2" r:id="rId2"/>
     <sheet name="prewitt" sheetId="3" r:id="rId3"/>
-    <sheet name="lap" sheetId="4" r:id="rId4"/>
-    <sheet name="shape" sheetId="5" r:id="rId5"/>
+    <sheet name="sobel" sheetId="6" r:id="rId4"/>
+    <sheet name="lap" sheetId="4" r:id="rId5"/>
+    <sheet name="shape" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>平均</t>
     <rPh sb="0" eb="2">
@@ -53,15 +54,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>shape</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>lap4</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>lap8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sobel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shape_4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shape_8</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4246,11 +4255,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>lap!$B$7:$K$7</c15:sqref>
+                    <c15:sqref>sobel!$B$7:$K$7</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>lap!$C$7:$J$7</c:f>
+              <c:f>sobel!$C$7:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4284,7 +4293,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CD72-4777-9AF3-EE7BE01A6806}"/>
+              <c16:uniqueId val="{00000000-098E-4058-AA2D-FF3ECB9965D5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4342,37 +4351,37 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>lap!$B$19:$K$19</c15:sqref>
+                    <c15:sqref>sobel!$B$19:$K$19</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>lap!$C$19:$J$19</c:f>
+              <c:f>sobel!$C$19:$J$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>131</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>185</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>238</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>112</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4380,7 +4389,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CD72-4777-9AF3-EE7BE01A6806}"/>
+              <c16:uniqueId val="{00000001-098E-4058-AA2D-FF3ECB9965D5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4395,76 +4404,6 @@
         <c:smooth val="0"/>
         <c:axId val="953140592"/>
         <c:axId val="1081408656"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>lap!$B$31:$K$31</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>lap!$C$31:$J$31</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>62</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>62</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>154</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>190</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>246</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>148</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-AE62-4CF6-857C-B5E5A67AD0BD}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="953140592"/>
@@ -4694,6 +4633,454 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
+                    <c15:sqref>lap!$B$7:$K$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>lap!$C$7:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD72-4777-9AF3-EE7BE01A6806}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>lap!$B$19:$K$19</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>lap!$C$19:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CD72-4777-9AF3-EE7BE01A6806}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="953140592"/>
+        <c:axId val="1081408656"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>lap!$B$31:$K$31</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>lap!$C$31:$J$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>154</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>190</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>246</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>148</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-AE62-4CF6-857C-B5E5A67AD0BD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="953140592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1081408656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1081408656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="255"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="953140592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="51"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
                     <c15:sqref>shape!$B$7:$K$7</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
@@ -4829,6 +5216,102 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2EAE-42DC-A779-ED0B0C6D62E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>shape!$B$31:$K$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>shape!$C$31:$J$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D180-4D17-8552-B6EB4F773E11}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9539,6 +10022,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12158,6 +12681,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -12766,6 +13805,49 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50451066-4D3F-4618-946C-344B9D0E8E29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
@@ -12804,7 +13886,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16328,7 +17410,7 @@
   <dimension ref="B2:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -16987,11 +18069,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35AD115B-4D42-49BD-8BC5-5112987B38EF}">
-  <dimension ref="B2:K36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C65950-C9D3-42F1-8280-BA8C6716ECA8}">
+  <dimension ref="B2:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -17323,7 +18405,7 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -17363,28 +18445,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D16">
-        <v>228</v>
+        <v>98</v>
       </c>
       <c r="E16">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="F16">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="G16">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="H16">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="I16">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -17395,28 +18477,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="D17">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="E17">
-        <v>217</v>
+        <v>131</v>
       </c>
       <c r="F17">
-        <v>202</v>
+        <v>84</v>
       </c>
       <c r="G17">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="H17">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="I17">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="J17">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -17427,28 +18509,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="D18">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="E18">
-        <v>63</v>
+        <v>174</v>
       </c>
       <c r="F18">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="G18">
-        <v>255</v>
+        <v>113</v>
       </c>
       <c r="H18">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="I18">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="J18">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -17459,28 +18541,28 @@
         <v>0</v>
       </c>
       <c r="C19">
+        <v>31</v>
+      </c>
+      <c r="D19">
         <v>69</v>
       </c>
-      <c r="D19">
-        <v>9</v>
-      </c>
       <c r="E19">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="F19">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="G19">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="H19">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="I19">
-        <v>238</v>
+        <v>83</v>
       </c>
       <c r="J19">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -17491,28 +18573,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="E20">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F20">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="G20">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="H20">
-        <v>56</v>
+        <v>175</v>
       </c>
       <c r="I20">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="J20">
-        <v>234</v>
+        <v>98</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -17523,28 +18605,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="F21">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="G21">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="I21">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="J21">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -17555,28 +18637,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>118</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="F22">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="H22">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="J22">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -17587,28 +18669,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="F23">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="G23">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="I23">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="J23">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -17643,331 +18725,6 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11">
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>178</v>
-      </c>
-      <c r="D28">
-        <v>237</v>
-      </c>
-      <c r="E28">
-        <v>171</v>
-      </c>
-      <c r="F28">
-        <v>141</v>
-      </c>
-      <c r="G28">
-        <v>132</v>
-      </c>
-      <c r="H28">
-        <v>124</v>
-      </c>
-      <c r="I28">
-        <v>137</v>
-      </c>
-      <c r="J28">
-        <v>99</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>66</v>
-      </c>
-      <c r="D29">
-        <v>164</v>
-      </c>
-      <c r="E29">
-        <v>221</v>
-      </c>
-      <c r="F29">
-        <v>218</v>
-      </c>
-      <c r="G29">
-        <v>181</v>
-      </c>
-      <c r="H29">
-        <v>150</v>
-      </c>
-      <c r="I29">
-        <v>128</v>
-      </c>
-      <c r="J29">
-        <v>95</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>21</v>
-      </c>
-      <c r="D30">
-        <v>53</v>
-      </c>
-      <c r="E30">
-        <v>76</v>
-      </c>
-      <c r="F30">
-        <v>167</v>
-      </c>
-      <c r="G30">
-        <v>255</v>
-      </c>
-      <c r="H30">
-        <v>152</v>
-      </c>
-      <c r="I30">
-        <v>131</v>
-      </c>
-      <c r="J30">
-        <v>140</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>62</v>
-      </c>
-      <c r="D31">
-        <v>13</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>62</v>
-      </c>
-      <c r="G31">
-        <v>154</v>
-      </c>
-      <c r="H31">
-        <v>190</v>
-      </c>
-      <c r="I31">
-        <v>246</v>
-      </c>
-      <c r="J31">
-        <v>148</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>101</v>
-      </c>
-      <c r="D32">
-        <v>98</v>
-      </c>
-      <c r="E32">
-        <v>56</v>
-      </c>
-      <c r="F32">
-        <v>12</v>
-      </c>
-      <c r="G32">
-        <v>41</v>
-      </c>
-      <c r="H32">
-        <v>63</v>
-      </c>
-      <c r="I32">
-        <v>203</v>
-      </c>
-      <c r="J32">
-        <v>234</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11">
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>119</v>
-      </c>
-      <c r="D33">
-        <v>120</v>
-      </c>
-      <c r="E33">
-        <v>93</v>
-      </c>
-      <c r="F33">
-        <v>66</v>
-      </c>
-      <c r="G33">
-        <v>41</v>
-      </c>
-      <c r="H33">
-        <v>4</v>
-      </c>
-      <c r="I33">
-        <v>88</v>
-      </c>
-      <c r="J33">
-        <v>155</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11">
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>113</v>
-      </c>
-      <c r="D34">
-        <v>125</v>
-      </c>
-      <c r="E34">
-        <v>117</v>
-      </c>
-      <c r="F34">
-        <v>95</v>
-      </c>
-      <c r="G34">
-        <v>90</v>
-      </c>
-      <c r="H34">
-        <v>43</v>
-      </c>
-      <c r="I34">
-        <v>13</v>
-      </c>
-      <c r="J34">
-        <v>50</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11">
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>114</v>
-      </c>
-      <c r="D35">
-        <v>105</v>
-      </c>
-      <c r="E35">
-        <v>117</v>
-      </c>
-      <c r="F35">
-        <v>118</v>
-      </c>
-      <c r="G35">
-        <v>116</v>
-      </c>
-      <c r="H35">
-        <v>83</v>
-      </c>
-      <c r="I35">
-        <v>54</v>
-      </c>
-      <c r="J35">
-        <v>13</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
         <v>0</v>
       </c>
     </row>
@@ -17980,11 +18737,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F14E988-7BE8-477D-A805-0C8C04343F65}">
-  <dimension ref="B2:K24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35AD115B-4D42-49BD-8BC5-5112987B38EF}">
+  <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:J19"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -18356,28 +19113,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="E16">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="F16">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="G16">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="H16">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="I16">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="J16">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -18388,28 +19145,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>177</v>
+        <v>61</v>
       </c>
       <c r="D17">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="E17">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="G17">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="H17">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="I17">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="J17">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -18420,28 +19177,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>248</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>202</v>
+        <v>54</v>
       </c>
       <c r="E18">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="F18">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="H18">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="I18">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="J18">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -18452,28 +19209,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>239</v>
+        <v>69</v>
       </c>
       <c r="D19">
-        <v>255</v>
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>182</v>
+        <v>63</v>
       </c>
       <c r="G19">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="H19">
-        <v>35</v>
+        <v>185</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="J19">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -18484,28 +19241,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>228</v>
+        <v>91</v>
       </c>
       <c r="D20">
-        <v>222</v>
+        <v>99</v>
       </c>
       <c r="E20">
-        <v>239</v>
+        <v>63</v>
       </c>
       <c r="F20">
-        <v>255</v>
+        <v>7</v>
       </c>
       <c r="G20">
-        <v>214</v>
+        <v>37</v>
       </c>
       <c r="H20">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="I20">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -18516,28 +19273,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c r="D21">
-        <v>214</v>
+        <v>112</v>
       </c>
       <c r="E21">
-        <v>230</v>
+        <v>88</v>
       </c>
       <c r="F21">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="G21">
-        <v>247</v>
+        <v>39</v>
       </c>
       <c r="H21">
-        <v>249</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="J21">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -18548,28 +19305,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>220</v>
+        <v>101</v>
       </c>
       <c r="D22">
-        <v>210</v>
+        <v>118</v>
       </c>
       <c r="E22">
-        <v>216</v>
+        <v>110</v>
       </c>
       <c r="F22">
-        <v>231</v>
+        <v>88</v>
       </c>
       <c r="G22">
-        <v>228</v>
+        <v>90</v>
       </c>
       <c r="H22">
-        <v>245</v>
+        <v>52</v>
       </c>
       <c r="I22">
-        <v>255</v>
+        <v>3</v>
       </c>
       <c r="J22">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -18580,28 +19337,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>214</v>
+        <v>110</v>
       </c>
       <c r="D23">
-        <v>228</v>
+        <v>88</v>
       </c>
       <c r="E23">
-        <v>214</v>
+        <v>112</v>
       </c>
       <c r="F23">
-        <v>216</v>
+        <v>110</v>
       </c>
       <c r="G23">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c r="H23">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="I23">
-        <v>244</v>
+        <v>60</v>
       </c>
       <c r="J23">
-        <v>255</v>
+        <v>9</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -18636,6 +19393,1324 @@
         <v>0</v>
       </c>
       <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>178</v>
+      </c>
+      <c r="D28">
+        <v>237</v>
+      </c>
+      <c r="E28">
+        <v>171</v>
+      </c>
+      <c r="F28">
+        <v>141</v>
+      </c>
+      <c r="G28">
+        <v>132</v>
+      </c>
+      <c r="H28">
+        <v>124</v>
+      </c>
+      <c r="I28">
+        <v>137</v>
+      </c>
+      <c r="J28">
+        <v>99</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>66</v>
+      </c>
+      <c r="D29">
+        <v>164</v>
+      </c>
+      <c r="E29">
+        <v>221</v>
+      </c>
+      <c r="F29">
+        <v>218</v>
+      </c>
+      <c r="G29">
+        <v>181</v>
+      </c>
+      <c r="H29">
+        <v>150</v>
+      </c>
+      <c r="I29">
+        <v>128</v>
+      </c>
+      <c r="J29">
+        <v>95</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>21</v>
+      </c>
+      <c r="D30">
+        <v>53</v>
+      </c>
+      <c r="E30">
+        <v>76</v>
+      </c>
+      <c r="F30">
+        <v>167</v>
+      </c>
+      <c r="G30">
+        <v>255</v>
+      </c>
+      <c r="H30">
+        <v>152</v>
+      </c>
+      <c r="I30">
+        <v>131</v>
+      </c>
+      <c r="J30">
+        <v>140</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>62</v>
+      </c>
+      <c r="D31">
+        <v>13</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>62</v>
+      </c>
+      <c r="G31">
+        <v>154</v>
+      </c>
+      <c r="H31">
+        <v>190</v>
+      </c>
+      <c r="I31">
+        <v>246</v>
+      </c>
+      <c r="J31">
+        <v>148</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>101</v>
+      </c>
+      <c r="D32">
+        <v>98</v>
+      </c>
+      <c r="E32">
+        <v>56</v>
+      </c>
+      <c r="F32">
+        <v>12</v>
+      </c>
+      <c r="G32">
+        <v>41</v>
+      </c>
+      <c r="H32">
+        <v>63</v>
+      </c>
+      <c r="I32">
+        <v>203</v>
+      </c>
+      <c r="J32">
+        <v>234</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>119</v>
+      </c>
+      <c r="D33">
+        <v>120</v>
+      </c>
+      <c r="E33">
+        <v>93</v>
+      </c>
+      <c r="F33">
+        <v>66</v>
+      </c>
+      <c r="G33">
+        <v>41</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <v>88</v>
+      </c>
+      <c r="J33">
+        <v>155</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>113</v>
+      </c>
+      <c r="D34">
+        <v>125</v>
+      </c>
+      <c r="E34">
+        <v>117</v>
+      </c>
+      <c r="F34">
+        <v>95</v>
+      </c>
+      <c r="G34">
+        <v>90</v>
+      </c>
+      <c r="H34">
+        <v>43</v>
+      </c>
+      <c r="I34">
+        <v>13</v>
+      </c>
+      <c r="J34">
+        <v>50</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>114</v>
+      </c>
+      <c r="D35">
+        <v>105</v>
+      </c>
+      <c r="E35">
+        <v>117</v>
+      </c>
+      <c r="F35">
+        <v>118</v>
+      </c>
+      <c r="G35">
+        <v>116</v>
+      </c>
+      <c r="H35">
+        <v>83</v>
+      </c>
+      <c r="I35">
+        <v>54</v>
+      </c>
+      <c r="J35">
+        <v>13</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F14E988-7BE8-477D-A805-0C8C04343F65}">
+  <dimension ref="B2:K36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="2:11">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3">
+        <v>66</v>
+      </c>
+      <c r="C3">
+        <v>49</v>
+      </c>
+      <c r="D3">
+        <v>46</v>
+      </c>
+      <c r="E3">
+        <v>49</v>
+      </c>
+      <c r="F3">
+        <v>52</v>
+      </c>
+      <c r="G3">
+        <v>46</v>
+      </c>
+      <c r="H3">
+        <v>42</v>
+      </c>
+      <c r="I3">
+        <v>38</v>
+      </c>
+      <c r="J3">
+        <v>37</v>
+      </c>
+      <c r="K3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4">
+        <v>124</v>
+      </c>
+      <c r="C4">
+        <v>89</v>
+      </c>
+      <c r="D4">
+        <v>58</v>
+      </c>
+      <c r="E4">
+        <v>52</v>
+      </c>
+      <c r="F4">
+        <v>47</v>
+      </c>
+      <c r="G4">
+        <v>42</v>
+      </c>
+      <c r="H4">
+        <v>39</v>
+      </c>
+      <c r="I4">
+        <v>36</v>
+      </c>
+      <c r="J4">
+        <v>41</v>
+      </c>
+      <c r="K4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5">
+        <v>187</v>
+      </c>
+      <c r="C5">
+        <v>153</v>
+      </c>
+      <c r="D5">
+        <v>110</v>
+      </c>
+      <c r="E5">
+        <v>74</v>
+      </c>
+      <c r="F5">
+        <v>52</v>
+      </c>
+      <c r="G5">
+        <v>42</v>
+      </c>
+      <c r="H5">
+        <v>38</v>
+      </c>
+      <c r="I5">
+        <v>39</v>
+      </c>
+      <c r="J5">
+        <v>42</v>
+      </c>
+      <c r="K5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6">
+        <v>216</v>
+      </c>
+      <c r="C6">
+        <v>202</v>
+      </c>
+      <c r="D6">
+        <v>174</v>
+      </c>
+      <c r="E6">
+        <v>141</v>
+      </c>
+      <c r="F6">
+        <v>96</v>
+      </c>
+      <c r="G6">
+        <v>56</v>
+      </c>
+      <c r="H6">
+        <v>51</v>
+      </c>
+      <c r="I6">
+        <v>44</v>
+      </c>
+      <c r="J6">
+        <v>37</v>
+      </c>
+      <c r="K6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7">
+        <v>219</v>
+      </c>
+      <c r="C7">
+        <v>219</v>
+      </c>
+      <c r="D7">
+        <v>215</v>
+      </c>
+      <c r="E7">
+        <v>197</v>
+      </c>
+      <c r="F7">
+        <v>159</v>
+      </c>
+      <c r="G7">
+        <v>114</v>
+      </c>
+      <c r="H7">
+        <v>77</v>
+      </c>
+      <c r="I7">
+        <v>45</v>
+      </c>
+      <c r="J7">
+        <v>43</v>
+      </c>
+      <c r="K7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8">
+        <v>218</v>
+      </c>
+      <c r="C8">
+        <v>220</v>
+      </c>
+      <c r="D8">
+        <v>218</v>
+      </c>
+      <c r="E8">
+        <v>216</v>
+      </c>
+      <c r="F8">
+        <v>206</v>
+      </c>
+      <c r="G8">
+        <v>177</v>
+      </c>
+      <c r="H8">
+        <v>140</v>
+      </c>
+      <c r="I8">
+        <v>86</v>
+      </c>
+      <c r="J8">
+        <v>52</v>
+      </c>
+      <c r="K8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9">
+        <v>218</v>
+      </c>
+      <c r="C9">
+        <v>217</v>
+      </c>
+      <c r="D9">
+        <v>217</v>
+      </c>
+      <c r="E9">
+        <v>220</v>
+      </c>
+      <c r="F9">
+        <v>219</v>
+      </c>
+      <c r="G9">
+        <v>211</v>
+      </c>
+      <c r="H9">
+        <v>193</v>
+      </c>
+      <c r="I9">
+        <v>149</v>
+      </c>
+      <c r="J9">
+        <v>103</v>
+      </c>
+      <c r="K9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10">
+        <v>216</v>
+      </c>
+      <c r="C10">
+        <v>217</v>
+      </c>
+      <c r="D10">
+        <v>216</v>
+      </c>
+      <c r="E10">
+        <v>218</v>
+      </c>
+      <c r="F10">
+        <v>221</v>
+      </c>
+      <c r="G10">
+        <v>219</v>
+      </c>
+      <c r="H10">
+        <v>216</v>
+      </c>
+      <c r="I10">
+        <v>201</v>
+      </c>
+      <c r="J10">
+        <v>165</v>
+      </c>
+      <c r="K10">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11">
+        <v>215</v>
+      </c>
+      <c r="C11">
+        <v>216</v>
+      </c>
+      <c r="D11">
+        <v>218</v>
+      </c>
+      <c r="E11">
+        <v>217</v>
+      </c>
+      <c r="F11">
+        <v>218</v>
+      </c>
+      <c r="G11">
+        <v>219</v>
+      </c>
+      <c r="H11">
+        <v>222</v>
+      </c>
+      <c r="I11">
+        <v>219</v>
+      </c>
+      <c r="J11">
+        <v>208</v>
+      </c>
+      <c r="K11">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12">
+        <v>215</v>
+      </c>
+      <c r="C12">
+        <v>216</v>
+      </c>
+      <c r="D12">
+        <v>213</v>
+      </c>
+      <c r="E12">
+        <v>217</v>
+      </c>
+      <c r="F12">
+        <v>217</v>
+      </c>
+      <c r="G12">
+        <v>219</v>
+      </c>
+      <c r="H12">
+        <v>221</v>
+      </c>
+      <c r="I12">
+        <v>220</v>
+      </c>
+      <c r="J12">
+        <v>219</v>
+      </c>
+      <c r="K12">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>61</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>32</v>
+      </c>
+      <c r="F16">
+        <v>37</v>
+      </c>
+      <c r="G16">
+        <v>36</v>
+      </c>
+      <c r="H16">
+        <v>37</v>
+      </c>
+      <c r="I16">
+        <v>23</v>
+      </c>
+      <c r="J16">
+        <v>52</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>177</v>
+      </c>
+      <c r="D17">
+        <v>91</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>22</v>
+      </c>
+      <c r="H17">
+        <v>19</v>
+      </c>
+      <c r="I17">
+        <v>35</v>
+      </c>
+      <c r="J17">
+        <v>56</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>248</v>
+      </c>
+      <c r="D18">
+        <v>202</v>
+      </c>
+      <c r="E18">
+        <v>164</v>
+      </c>
+      <c r="F18">
+        <v>72</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>40</v>
+      </c>
+      <c r="I18">
+        <v>48</v>
+      </c>
+      <c r="J18">
+        <v>19</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>239</v>
+      </c>
+      <c r="D19">
+        <v>255</v>
+      </c>
+      <c r="E19">
+        <v>254</v>
+      </c>
+      <c r="F19">
+        <v>182</v>
+      </c>
+      <c r="G19">
+        <v>101</v>
+      </c>
+      <c r="H19">
+        <v>35</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>40</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>228</v>
+      </c>
+      <c r="D20">
+        <v>222</v>
+      </c>
+      <c r="E20">
+        <v>239</v>
+      </c>
+      <c r="F20">
+        <v>255</v>
+      </c>
+      <c r="G20">
+        <v>214</v>
+      </c>
+      <c r="H20">
+        <v>167</v>
+      </c>
+      <c r="I20">
+        <v>44</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>213</v>
+      </c>
+      <c r="D21">
+        <v>214</v>
+      </c>
+      <c r="E21">
+        <v>230</v>
+      </c>
+      <c r="F21">
+        <v>237</v>
+      </c>
+      <c r="G21">
+        <v>247</v>
+      </c>
+      <c r="H21">
+        <v>249</v>
+      </c>
+      <c r="I21">
+        <v>162</v>
+      </c>
+      <c r="J21">
+        <v>90</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>220</v>
+      </c>
+      <c r="D22">
+        <v>210</v>
+      </c>
+      <c r="E22">
+        <v>216</v>
+      </c>
+      <c r="F22">
+        <v>231</v>
+      </c>
+      <c r="G22">
+        <v>228</v>
+      </c>
+      <c r="H22">
+        <v>245</v>
+      </c>
+      <c r="I22">
+        <v>255</v>
+      </c>
+      <c r="J22">
+        <v>194</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>214</v>
+      </c>
+      <c r="D23">
+        <v>228</v>
+      </c>
+      <c r="E23">
+        <v>214</v>
+      </c>
+      <c r="F23">
+        <v>216</v>
+      </c>
+      <c r="G23">
+        <v>217</v>
+      </c>
+      <c r="H23">
+        <v>235</v>
+      </c>
+      <c r="I23">
+        <v>244</v>
+      </c>
+      <c r="J23">
+        <v>255</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>14</v>
+      </c>
+      <c r="G28">
+        <v>20</v>
+      </c>
+      <c r="H28">
+        <v>28</v>
+      </c>
+      <c r="I28">
+        <v>8</v>
+      </c>
+      <c r="J28">
+        <v>63</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>217</v>
+      </c>
+      <c r="D29">
+        <v>47</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>23</v>
+      </c>
+      <c r="J29">
+        <v>69</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>255</v>
+      </c>
+      <c r="D30">
+        <v>255</v>
+      </c>
+      <c r="E30">
+        <v>192</v>
+      </c>
+      <c r="F30">
+        <v>29</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>24</v>
+      </c>
+      <c r="J30">
+        <v>5</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>255</v>
+      </c>
+      <c r="D31">
+        <v>255</v>
+      </c>
+      <c r="E31">
+        <v>255</v>
+      </c>
+      <c r="F31">
+        <v>228</v>
+      </c>
+      <c r="G31">
+        <v>64</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>239</v>
+      </c>
+      <c r="D32">
+        <v>241</v>
+      </c>
+      <c r="E32">
+        <v>255</v>
+      </c>
+      <c r="F32">
+        <v>255</v>
+      </c>
+      <c r="G32">
+        <v>255</v>
+      </c>
+      <c r="H32">
+        <v>208</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>213</v>
+      </c>
+      <c r="D33">
+        <v>211</v>
+      </c>
+      <c r="E33">
+        <v>249</v>
+      </c>
+      <c r="F33">
+        <v>255</v>
+      </c>
+      <c r="G33">
+        <v>255</v>
+      </c>
+      <c r="H33">
+        <v>255</v>
+      </c>
+      <c r="I33">
+        <v>185</v>
+      </c>
+      <c r="J33">
+        <v>52</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>220</v>
+      </c>
+      <c r="D34">
+        <v>204</v>
+      </c>
+      <c r="E34">
+        <v>216</v>
+      </c>
+      <c r="F34">
+        <v>248</v>
+      </c>
+      <c r="G34">
+        <v>252</v>
+      </c>
+      <c r="H34">
+        <v>255</v>
+      </c>
+      <c r="I34">
+        <v>255</v>
+      </c>
+      <c r="J34">
+        <v>250</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>218</v>
+      </c>
+      <c r="D35">
+        <v>232</v>
+      </c>
+      <c r="E35">
+        <v>215</v>
+      </c>
+      <c r="F35">
+        <v>215</v>
+      </c>
+      <c r="G35">
+        <v>218</v>
+      </c>
+      <c r="H35">
+        <v>255</v>
+      </c>
+      <c r="I35">
+        <v>255</v>
+      </c>
+      <c r="J35">
+        <v>255</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
         <v>0</v>
       </c>
     </row>

--- a/exp_c/slide/data.xlsx
+++ b/exp_c/slide/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78118AE4-DBD6-4F5D-A398-84A8BEE68EC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED11AA2-9311-4392-8A5F-4BD96BC06A01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="グラフ" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>平均</t>
     <rPh sb="0" eb="2">
@@ -73,6 +73,43 @@
     <t>shape_8</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>元画像</t>
+    <rPh sb="0" eb="1">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>四方向</t>
+    <rPh sb="0" eb="1">
+      <t>ヨン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ホウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八方向</t>
+    <rPh sb="0" eb="1">
+      <t>ハチ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ホウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列</t>
+    <rPh sb="0" eb="1">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -103,12 +140,129 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -117,8 +271,35 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16416,7 +16597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
@@ -19731,10 +19912,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F14E988-7BE8-477D-A805-0C8C04343F65}">
-  <dimension ref="B2:K36"/>
+  <dimension ref="B2:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -20586,7 +20767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:13">
       <c r="B33">
         <v>0</v>
       </c>
@@ -20618,7 +20799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:13">
       <c r="B34">
         <v>0</v>
       </c>
@@ -20650,7 +20831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:13">
       <c r="B35">
         <v>0</v>
       </c>
@@ -20682,7 +20863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:13">
       <c r="B36">
         <v>0</v>
       </c>
@@ -20712,11 +20893,216 @@
       </c>
       <c r="K36">
         <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" ht="19.5" thickBot="1"/>
+    <row r="39" spans="2:13" ht="19.5" thickBot="1">
+      <c r="B39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2">
+        <v>3</v>
+      </c>
+      <c r="E39" s="2">
+        <v>4</v>
+      </c>
+      <c r="F39" s="2">
+        <v>5</v>
+      </c>
+      <c r="G39" s="2">
+        <v>6</v>
+      </c>
+      <c r="H39" s="2">
+        <v>7</v>
+      </c>
+      <c r="I39" s="2">
+        <v>8</v>
+      </c>
+      <c r="J39" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" ht="19.5" thickBot="1">
+      <c r="B40" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="8">
+        <v>219</v>
+      </c>
+      <c r="D40" s="8">
+        <v>215</v>
+      </c>
+      <c r="E40" s="8">
+        <v>197</v>
+      </c>
+      <c r="F40" s="8">
+        <v>159</v>
+      </c>
+      <c r="G40" s="8">
+        <v>114</v>
+      </c>
+      <c r="H40" s="8">
+        <v>77</v>
+      </c>
+      <c r="I40" s="8">
+        <v>45</v>
+      </c>
+      <c r="J40" s="9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" ht="19.5" thickBot="1">
+      <c r="B41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="5">
+        <v>239</v>
+      </c>
+      <c r="D41" s="5">
+        <v>255</v>
+      </c>
+      <c r="E41" s="5">
+        <v>254</v>
+      </c>
+      <c r="F41" s="5">
+        <v>182</v>
+      </c>
+      <c r="G41" s="5">
+        <v>101</v>
+      </c>
+      <c r="H41" s="5">
+        <v>35</v>
+      </c>
+      <c r="I41" s="5">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" ht="19.5" thickBot="1">
+      <c r="B42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="2">
+        <v>255</v>
+      </c>
+      <c r="D42" s="2">
+        <v>255</v>
+      </c>
+      <c r="E42" s="2">
+        <v>255</v>
+      </c>
+      <c r="F42" s="2">
+        <v>228</v>
+      </c>
+      <c r="G42" s="2">
+        <v>64</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="C45">
+        <v>159</v>
+      </c>
+      <c r="D45">
+        <v>114</v>
+      </c>
+      <c r="E45">
+        <v>77</v>
+      </c>
+      <c r="G45">
+        <v>182</v>
+      </c>
+      <c r="H45">
+        <v>101</v>
+      </c>
+      <c r="I45">
+        <v>35</v>
+      </c>
+      <c r="K45">
+        <v>228</v>
+      </c>
+      <c r="L45">
+        <v>64</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="C46">
+        <v>206</v>
+      </c>
+      <c r="D46">
+        <v>177</v>
+      </c>
+      <c r="E46">
+        <v>140</v>
+      </c>
+      <c r="G46">
+        <v>255</v>
+      </c>
+      <c r="H46">
+        <v>214</v>
+      </c>
+      <c r="I46">
+        <v>167</v>
+      </c>
+      <c r="K46">
+        <v>255</v>
+      </c>
+      <c r="L46">
+        <v>255</v>
+      </c>
+      <c r="M46">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="C47">
+        <v>219</v>
+      </c>
+      <c r="D47">
+        <v>211</v>
+      </c>
+      <c r="E47">
+        <v>193</v>
+      </c>
+      <c r="G47">
+        <v>237</v>
+      </c>
+      <c r="H47">
+        <v>247</v>
+      </c>
+      <c r="I47">
+        <v>249</v>
+      </c>
+      <c r="K47">
+        <v>255</v>
+      </c>
+      <c r="L47">
+        <v>255</v>
+      </c>
+      <c r="M47">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/exp_c/slide/data.xlsx
+++ b/exp_c/slide/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED11AA2-9311-4392-8A5F-4BD96BC06A01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E8DF08-5A17-461D-B362-DB6E134D47D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="グラフ" sheetId="1" r:id="rId1"/>
@@ -4952,6 +4952,102 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>lap!$B$31:$K$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>lap!$C$31:$J$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>148</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE62-4CF6-857C-B5E5A67AD0BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -4963,76 +5059,7 @@
         <c:smooth val="0"/>
         <c:axId val="953140592"/>
         <c:axId val="1081408656"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>lap!$B$31:$K$31</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>lap!$C$31:$J$31</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>62</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>62</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>154</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>190</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>246</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>148</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-AE62-4CF6-857C-B5E5A67AD0BD}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="953140592"/>
@@ -16597,7 +16624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
@@ -18919,10 +18946,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35AD115B-4D42-49BD-8BC5-5112987B38EF}">
-  <dimension ref="B2:K36"/>
+  <dimension ref="B2:L42"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -19774,7 +19801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:12">
       <c r="B33">
         <v>0</v>
       </c>
@@ -19806,7 +19833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:12">
       <c r="B34">
         <v>0</v>
       </c>
@@ -19838,7 +19865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:12">
       <c r="B35">
         <v>0</v>
       </c>
@@ -19870,7 +19897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:12">
       <c r="B36">
         <v>0</v>
       </c>
@@ -19900,6 +19927,93 @@
       </c>
       <c r="K36">
         <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="B40">
+        <v>159</v>
+      </c>
+      <c r="C40">
+        <v>114</v>
+      </c>
+      <c r="D40">
+        <v>77</v>
+      </c>
+      <c r="F40">
+        <v>63</v>
+      </c>
+      <c r="G40">
+        <v>131</v>
+      </c>
+      <c r="H40">
+        <v>185</v>
+      </c>
+      <c r="J40">
+        <v>62</v>
+      </c>
+      <c r="K40">
+        <v>154</v>
+      </c>
+      <c r="L40">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="B41">
+        <v>206</v>
+      </c>
+      <c r="C41">
+        <v>177</v>
+      </c>
+      <c r="D41">
+        <v>140</v>
+      </c>
+      <c r="F41">
+        <v>7</v>
+      </c>
+      <c r="G41">
+        <v>37</v>
+      </c>
+      <c r="H41">
+        <v>56</v>
+      </c>
+      <c r="J41">
+        <v>12</v>
+      </c>
+      <c r="K41">
+        <v>41</v>
+      </c>
+      <c r="L41">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="B42">
+        <v>219</v>
+      </c>
+      <c r="C42">
+        <v>211</v>
+      </c>
+      <c r="D42">
+        <v>193</v>
+      </c>
+      <c r="F42">
+        <v>73</v>
+      </c>
+      <c r="G42">
+        <v>39</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>66</v>
+      </c>
+      <c r="K42">
+        <v>41</v>
+      </c>
+      <c r="L42">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/exp_c/slide/data.xlsx
+++ b/exp_c/slide/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E8DF08-5A17-461D-B362-DB6E134D47D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357497E7-BB42-472F-8B90-BA9BE27C4234}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14475" yWindow="2505" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="グラフ" sheetId="1" r:id="rId1"/>
@@ -444,6 +444,24 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>列</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -465,6 +483,24 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>画素値</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1832,6 +1868,24 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>列</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1853,6 +1907,24 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>画素値</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -3214,6 +3286,24 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>列</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -3235,6 +3325,24 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>画素値</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -3837,6 +3945,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>列</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3903,6 +4066,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>画素値</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4215,6 +4433,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>列</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4281,6 +4554,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>画素値</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4593,6 +4921,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>列</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4659,6 +5042,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>画素値</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4952,102 +5390,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="8"/>
-              <c:pt idx="0">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>7</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>8</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>9</c:v>
-              </c:pt>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:autoCat val="1"/>
-                </c:ext>
-              </c:extLst>
-            </c:strLit>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>lap!$B$31:$K$31</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>lap!$C$31:$J$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>148</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AE62-4CF6-857C-B5E5A67AD0BD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -5059,7 +5401,76 @@
         <c:smooth val="0"/>
         <c:axId val="953140592"/>
         <c:axId val="1081408656"/>
-        <c:extLst/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>lap!$B$31:$K$31</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>lap!$C$31:$J$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>154</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>190</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>246</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>148</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-AE62-4CF6-857C-B5E5A67AD0BD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="953140592"/>
@@ -5068,6 +5479,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>列</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5134,6 +5600,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>画素値</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5427,102 +5948,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="8"/>
-              <c:pt idx="0">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>7</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>8</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>9</c:v>
-              </c:pt>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:autoCat val="1"/>
-                </c:ext>
-              </c:extLst>
-            </c:strLit>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>shape!$B$31:$K$31</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>shape!$C$31:$J$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>228</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D180-4D17-8552-B6EB4F773E11}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -5534,6 +5959,76 @@
         <c:smooth val="0"/>
         <c:axId val="953140592"/>
         <c:axId val="1081408656"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>shape!$B$31:$K$31</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>shape!$C$31:$J$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>228</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-D180-4D17-8552-B6EB4F773E11}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="953140592"/>
@@ -5542,6 +6037,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>列</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5608,6 +6158,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>画素値</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5814,6 +6419,24 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>列</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -5835,6 +6458,24 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>画素値</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -5982,6 +6623,24 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>列</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -6003,6 +6662,24 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>画素値</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -6150,6 +6827,24 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>列</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -6171,6 +6866,24 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>画素値</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -10027,6 +10740,24 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>列</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -10047,6 +10778,24 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>画素値</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -14426,8 +15175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:U157"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I136" sqref="I136"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U156" sqref="U156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -16624,8 +17373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView topLeftCell="I4" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -17617,8 +18366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -18281,7 +19030,7 @@
   <dimension ref="B2:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -18948,8 +19697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35AD115B-4D42-49BD-8BC5-5112987B38EF}">
   <dimension ref="B2:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -20028,8 +20777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F14E988-7BE8-477D-A805-0C8C04343F65}">
   <dimension ref="B2:M47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/exp_c/slide/data.xlsx
+++ b/exp_c/slide/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357497E7-BB42-472F-8B90-BA9BE27C4234}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59719854-63E3-4A7A-A551-529F1298A68F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14475" yWindow="2505" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14475" yWindow="2505" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="グラフ" sheetId="1" r:id="rId1"/>
@@ -5810,11 +5810,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>shape!$B$7:$K$7</c15:sqref>
+                    <c15:sqref>lap!$B$7:$K$7</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>shape!$C$7:$J$7</c:f>
+              <c:f>lap!$C$7:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5848,7 +5848,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2EAE-42DC-A779-ED0B0C6D62E3}"/>
+              <c16:uniqueId val="{00000000-C589-4DB5-B9A1-AE39DFA0A9BB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5906,37 +5906,37 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>shape!$B$19:$K$19</c15:sqref>
+                    <c15:sqref>lap!$B$19:$K$19</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>shape!$C$19:$J$19</c:f>
+              <c:f>lap!$C$19:$J$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>239</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>255</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>254</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>182</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>101</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5944,7 +5944,103 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2EAE-42DC-A779-ED0B0C6D62E3}"/>
+              <c16:uniqueId val="{00000001-C589-4DB5-B9A1-AE39DFA0A9BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>prewitt!$B$19:$K$19</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>prewitt!$C$19:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C589-4DB5-B9A1-AE39DFA0A9BB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5959,76 +6055,7 @@
         <c:smooth val="0"/>
         <c:axId val="953140592"/>
         <c:axId val="1081408656"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>shape!$B$31:$K$31</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>shape!$C$31:$J$31</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>228</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>1</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-D180-4D17-8552-B6EB4F773E11}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="953140592"/>
@@ -6493,6 +6520,564 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>shape!$B$7:$K$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>shape!$C$7:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2EAE-42DC-A779-ED0B0C6D62E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>shape!$B$19:$K$19</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>shape!$C$19:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2EAE-42DC-A779-ED0B0C6D62E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="953140592"/>
+        <c:axId val="1081408656"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>shape!$B$31:$K$31</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>shape!$C$31:$J$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>228</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-D180-4D17-8552-B6EB4F773E11}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="953140592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>列</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1081408656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1081408656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="255"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>画素値</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="953140592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="51"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11019,6 +11604,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -14154,6 +14779,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -14840,6 +15981,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>366713</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{285A606A-22A8-403A-A2EA-1BC29DC52EB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15175,7 +16354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:U157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U156" sqref="U156"/>
     </sheetView>
   </sheetViews>
@@ -18366,7 +19545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
@@ -19697,8 +20876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35AD115B-4D42-49BD-8BC5-5112987B38EF}">
   <dimension ref="B2:L42"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
